--- a/Projects/CCRU/Data/Supermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Supermarket PoS 2018.xlsx
@@ -37,6 +37,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -48,156 +49,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="639">
-  <si>
-    <t>Sorting</t>
-  </si>
-  <si>
-    <t>SAP PoS</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>SAP KPI</t>
-  </si>
-  <si>
-    <t>KPI name Eng</t>
-  </si>
-  <si>
-    <t>KPI name Rus</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>target_min</t>
-  </si>
-  <si>
-    <t>target_max</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Product Category</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Logical Operator</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Form Factor</t>
-  </si>
-  <si>
-    <t>Zone to include</t>
-  </si>
-  <si>
-    <t>Locations to exclude</t>
-  </si>
-  <si>
-    <t>Locations to include</t>
-  </si>
-  <si>
-    <t>Scenes to include</t>
-  </si>
-  <si>
-    <t>Scenes to exclude</t>
-  </si>
-  <si>
-    <t>Sub locations to include</t>
-  </si>
-  <si>
-    <t>Sub locations to exclude</t>
-  </si>
-  <si>
-    <t>shelf_number</t>
-  </si>
-  <si>
-    <t>Converted?</t>
-  </si>
-  <si>
-    <t>score_func</t>
-  </si>
-  <si>
-    <t>KPI Weight</t>
-  </si>
-  <si>
-    <t>score_min</t>
-  </si>
-  <si>
-    <t>score_max</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Base KPI for TOP 5 GAPs</t>
-  </si>
-  <si>
-    <t>KPI from POS 2016</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>depends on</t>
-  </si>
-  <si>
-    <t>KPI ID</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>To include in first calculation?</t>
-  </si>
-  <si>
-    <t>RD38010002</t>
-  </si>
-  <si>
-    <t>Supermarket</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>STANDARD 1</t>
-  </si>
-  <si>
-    <t>SSD Availability</t>
-  </si>
-  <si>
-    <t>Представленность SSD</t>
-  </si>
-  <si>
-    <t>Weighted Average </t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>2
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="640">
+  <si>
+    <t xml:space="preserve">Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP PoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converted?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base KPI for TOP 5 GAPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI from POS 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depends on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To include in first calculation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD38010002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2
 3
 4
 5
@@ -237,280 +238,280 @@
 39</t>
   </si>
   <si>
-    <t>Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>number of facings</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>Activation, Other</t>
-  </si>
-  <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
-    <t>BINARY</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000228970, 5449000054227</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 2л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t>Sprite - 2L</t>
-  </si>
-  <si>
-    <t>Спрайт - 2л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 2L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000231659, 5449000133328</t>
-  </si>
-  <si>
-    <t>Sprite - 1.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 1.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Bitter Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Биттер Лемон - 1.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Тоник - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000228963, 5449000006271</t>
-  </si>
-  <si>
-    <t>Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000228956, 5449000050939</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Citrus - 1.5L</t>
-  </si>
-  <si>
-    <t>Фанта Цитрус - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Bitter Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Биттер Лемон - 1л</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Тоник - 1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 0.9L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 0.9л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 1.5L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 1.5л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000241412, 5449000241429</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.25L Slim</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.25л слим</t>
-  </si>
-  <si>
-    <t>Fanta Citrus - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Фанта Цитрус - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000234179, 5449000213693</t>
-  </si>
-  <si>
-    <t>Schweppes Pomegranate - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Гранат - 1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>Schweppes Mojito - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Мохито - 1л</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.33л</t>
-  </si>
-  <si>
-    <t>Fanta Citrus - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Цитрус - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 1.5L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 1.5л</t>
-  </si>
-  <si>
-    <t>STANDARD 2</t>
-  </si>
-  <si>
-    <t>Water Availability</t>
-  </si>
-  <si>
-    <t>Представленность Воды</t>
-  </si>
-  <si>
-    <t>41
+    <t xml:space="preserve">Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228970, 5449000054227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000231659, 5449000133328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Биттер Лемон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228963, 5449000006271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228956, 5449000050939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Citrus - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Биттер Лемон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000241412, 5449000241429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.25L Slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.25л слим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Citrus - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000234179, 5449000213693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Pomegranate - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Гранат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.33л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Mojito - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Мохито - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Citrus - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41
 42
 43
 44
@@ -520,61 +521,61 @@
 48</t>
   </si>
   <si>
-    <t>BonAqua Still - 1L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Viva - Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Вива - Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Carb - 1L</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 2L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 2л</t>
-  </si>
-  <si>
-    <t>BonAqua Carb - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Carb - 2L</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 2л</t>
-  </si>
-  <si>
-    <t>BonAqua Viva - Apple - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Вива - Яблоко - 0.5л</t>
-  </si>
-  <si>
-    <t>Energy Availability</t>
-  </si>
-  <si>
-    <t>Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t>50
+    <t xml:space="preserve">BonAqua Still - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Viva - Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Вива - Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Carb - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Газ - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Carb - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Газ - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Carb - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Газ - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Viva - Apple - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Вива - Яблоко - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50
 51
 52
 53
@@ -582,49 +583,49 @@
 55</t>
   </si>
   <si>
-    <t>Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Apple Kiwi - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Яблоко-Киви - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Original - 0.33L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.33л</t>
-  </si>
-  <si>
-    <t>Burn Passion Punch - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Тропический микс - 0.5л</t>
-  </si>
-  <si>
-    <t>Monster Rossi - 0.5L</t>
-  </si>
-  <si>
-    <t>Монстер Росси - 0.5л</t>
-  </si>
-  <si>
-    <t>Tea Availability</t>
-  </si>
-  <si>
-    <t>Представленность Чая</t>
-  </si>
-  <si>
-    <t>57
+    <t xml:space="preserve">Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Apple Kiwi - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Яблоко-Киви - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Original - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Passion Punch - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Тропический микс - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Rossi - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Росси - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Чая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57
 58
 59
 60
@@ -635,67 +636,67 @@
 65</t>
   </si>
   <si>
-    <t>Fuze Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Green Strawberry-Raspberry - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Клубника-Малина - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Green Strawberry-Raspberry - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Клубника-Малина - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 1.5л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 1.5л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 0.33L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.33л</t>
-  </si>
-  <si>
-    <t>Fuze Mango-Camomile - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Манго-Ромашка - 0.5л</t>
-  </si>
-  <si>
-    <t>Juice Availability</t>
-  </si>
-  <si>
-    <t>Представленность Сока</t>
-  </si>
-  <si>
-    <t>67
+    <t xml:space="preserve">Fuze Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Сока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67
 68
 69
 70
@@ -749,370 +750,370 @@
 118</t>
   </si>
   <si>
-    <t>Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.33л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.33л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Mango-Orange - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Манго-Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Cloudy - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Деревенские яблочки - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 2л</t>
-  </si>
-  <si>
-    <t>Rich - Tomato - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Томат - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Peach - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Персик - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Bodriy Citrus - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Бодрый Цитрус - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pomegranate-Grape - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Гранат-Виноград - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pear - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Груша - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Vegetable Mix - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Овощной микс - 1л</t>
-  </si>
-  <si>
-    <t>Pulpy - Mango Pineapple - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Манго Ананас - 0.45л</t>
-  </si>
-  <si>
-    <t>Pulpy - Tropical - 0.9L</t>
-  </si>
-  <si>
-    <t>Палпи - Тропик - 0.9л</t>
-  </si>
-  <si>
-    <t>Rich - Pomegranate - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Гранат - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Grapefruit - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Грейпфрут - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Grape - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Виноград - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Cloudy - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Деревенские яблочки - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Plum-Currant-Apple-Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Слива-Смородина-Яблоко-Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Berry-Honey - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Медовые ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Blackashberry Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко-Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Blackashberry Raspberry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко-Малина - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Berry Fruit - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Фруктово-Ягодный - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Mors Cloudberry-Cowberry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Морс Брусника-Морошка - 1л</t>
-  </si>
-  <si>
-    <t>Pulpy - Tropical - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Тропик - 0.45л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 0.9L NFC</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин NFC - 0.9л</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 0.9L NFC</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко NFC - 0.9л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 0.3L PET</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 0.3L PET</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t>Dobriy - Pouch smoothie1 - 0.11L</t>
-  </si>
-  <si>
-    <t>Добрый - Смузи 1 - 0.11л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pouch smoothie2 - 0.11L</t>
-  </si>
-  <si>
-    <t>Добрый - Смузи 2 - 0.11л</t>
-  </si>
-  <si>
-    <t>Pulpy - Grapefruit - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Грейпфрут - 0.45л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pineapple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Ананас - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 20</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>SSD полка: Доля полки</t>
-  </si>
-  <si>
-    <t>SOS</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>MAN in CAT</t>
-  </si>
-  <si>
-    <t>Warm Shelf</t>
-  </si>
-  <si>
-    <t>PROPORTIONAL</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>SSD полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>2, 3</t>
-  </si>
-  <si>
-    <t>121
+    <t xml:space="preserve">Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Mango-Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Манго-Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Cloudy - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Деревенские яблочки - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Tomato - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Томат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Peach - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Персик - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Bodriy Citrus - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Бодрый Цитрус - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pomegranate-Grape - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Гранат-Виноград - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pear - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Груша - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Vegetable Mix - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Овощной микс - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Tropical - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Тропик - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Pomegranate - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Гранат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Grapefruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Грейпфрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Grape - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Виноград - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Cloudy - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Деревенские яблочки - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Plum-Currant-Apple-Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Слива-Смородина-Яблоко-Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Berry-Honey - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Медовые ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Blackashberry Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко-Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Blackashberry Raspberry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко-Малина - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Berry Fruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Фруктово-Ягодный - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Mors Cloudberry-Cowberry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Морс Брусника-Морошка - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Tropical - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Тропик - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 0.9L NFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин NFC - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 0.9L NFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко NFC - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 0.3L PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 0.3L PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pouch smoothie1 - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Смузи 1 - 0.11л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pouch smoothie2 - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Смузи 2 - 0.11л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Grapefruit - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Грейпфрут - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pineapple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Ананас - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN in CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121
 122
 123
 124
@@ -1121,708 +1122,711 @@
 127</t>
   </si>
   <si>
-    <t>Shelf: SKU on Eye level</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L, Coca-Cola - 1L</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Спрайт - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.9L, Sprite - 1L</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Фанта Апельсин - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.9L, Fanta Orange - 1L</t>
-  </si>
-  <si>
-    <t>STANDARD 21</t>
-  </si>
-  <si>
-    <t>Water Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Вода полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Water Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Вода полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>Water Shelf: BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t>Вода полка: БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t>STANDARD 23</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Сок полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Juices</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Сок полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>133
+    <t xml:space="preserve">Shelf: SKU on Eye level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L, Coca-Cola - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Спрайт - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.9L, Sprite - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L, Fanta Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133
 134
 135
 136
 137</t>
   </si>
   <si>
-    <t>Juice Shelf: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Rich - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Рич - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 24</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Доля полки</t>
-  </si>
-  <si>
-    <t>ice tea</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>140
+    <t xml:space="preserve">Juice Shelf: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Rich - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Рич - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140
 141</t>
   </si>
   <si>
-    <t>Ice Tea Shelf: Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 25</t>
-  </si>
-  <si>
-    <t>Energy Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Энергетики полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>STANDARD 19</t>
-  </si>
-  <si>
-    <t>SSD Display 1st</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed on the same scene</t>
-  </si>
-  <si>
-    <t>SSD Displays</t>
-  </si>
-  <si>
-    <t>144
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144
 145
 146</t>
   </si>
   <si>
-    <t>SSD Display 1st: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t>number of scenes</t>
-  </si>
-  <si>
-    <t>SCENES</t>
-  </si>
-  <si>
-    <t>1/3 of the Store</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Lead SKU Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Основной СКЮ Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>Lead SKU</t>
-  </si>
-  <si>
-    <t>Coca-Cola 1.5L share on Display. The competitors are only SSD SKUs</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed SSD Display 1st</t>
-  </si>
-  <si>
-    <t>148
+    <t xml:space="preserve">SSD Display 1st: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of scenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3 of the Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Lead SKU Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Основной СКЮ Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola 1.5L share on Display. The competitors are only SSD SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed SSD Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148
 149
 150</t>
   </si>
   <si>
-    <t>Displays Merch. Standards</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Sprite - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Спрайт - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й</t>
-  </si>
-  <si>
-    <t>Juice Displays</t>
-  </si>
-  <si>
-    <t>152
+    <t xml:space="preserve">Displays Merch. Standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Sprite - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Спрайт - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152
 153
 154</t>
   </si>
   <si>
-    <t>Juice Display 1st: Facings</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Zone</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t>Produce</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>155
+    <t xml:space="preserve">Juice Display 1st: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155
 156</t>
   </si>
   <si>
-    <t>Juice Display 1st: Lead Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed Juice Display 1st</t>
-  </si>
-  <si>
-    <t>158
+    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed Juice Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158
 159
 160
 161</t>
   </si>
   <si>
-    <t>Juice Display 1st: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й</t>
-  </si>
-  <si>
-    <t>163
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163
 164
 165</t>
   </si>
   <si>
-    <t>SSD Display 2d: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Зона</t>
-  </si>
-  <si>
-    <t>Deli</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Lead SKU Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Merch. Standard</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed SSD Display 2d</t>
-  </si>
-  <si>
-    <t>167
+    <t xml:space="preserve">SSD Display 2d: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Lead SKU Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed SSD Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167
 168</t>
   </si>
   <si>
-    <t>SSD Display 2d: Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Coca-Cola Zero - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Кока-Кола Зеро - 1.5л</t>
-  </si>
-  <si>
-    <t>Tea Display</t>
-  </si>
-  <si>
-    <t>Чай Дисплей</t>
-  </si>
-  <si>
-    <t>Tea Displays</t>
-  </si>
-  <si>
-    <t>170
+    <t xml:space="preserve">SSD Display 2d: Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Coca-Cola Zero - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола Зеро - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170
 171
 172</t>
   </si>
   <si>
-    <t>Tea Display: Facings</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>Tea Display: Zone</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Зона</t>
-  </si>
-  <si>
-    <t>Confectionary/Biscuits section</t>
-  </si>
-  <si>
-    <t>Tea Display: Lead SKU Fuze Berry/Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной СКЮ Фьюз Лесн.ягоды/Лимон - 1л</t>
-  </si>
-  <si>
-    <t>173
+    <t xml:space="preserve">Tea Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confectionary/Biscuits section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Lead SKU Fuze Berry/Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной СКЮ Фьюз Лесн.ягоды/Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173
 174</t>
   </si>
   <si>
-    <t>Tea Display: Lead Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Tea Display: Lead Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Water Display</t>
-  </si>
-  <si>
-    <t>Вода Дисплей</t>
-  </si>
-  <si>
-    <t>Water Displays</t>
-  </si>
-  <si>
-    <t>176
+    <t xml:space="preserve">Tea Display: Lead Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Lead Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176
 177
 178</t>
   </si>
   <si>
-    <t>Water Display: Facings</t>
-  </si>
-  <si>
-    <t>Вода Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>Water Display: Zone</t>
-  </si>
-  <si>
-    <t>Вода Дисплей: Зона</t>
-  </si>
-  <si>
-    <t>Entrance of Water section</t>
-  </si>
-  <si>
-    <t>Water Display: Lead SKU BonAqua Still - 2L</t>
-  </si>
-  <si>
-    <t>Вода Дисплей: Основной СКЮ БонАква Негаз - 2л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 2L share on Display</t>
-  </si>
-  <si>
-    <t>SSD Display 3d</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й</t>
-  </si>
-  <si>
-    <t>180
+    <t xml:space="preserve">Water Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Display: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrance of Water section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Display: Lead SKU BonAqua Still - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей: Основной СКЮ БонАква Негаз - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 2L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180
 181
 182</t>
   </si>
   <si>
-    <t>SSD Display 3d: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 3d: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й: Зона</t>
-  </si>
-  <si>
-    <t>Entrance of SSD section</t>
-  </si>
-  <si>
-    <t>SSD Display 3d: Lead SKU Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й: Основной СКЮ Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 1.5L share on Display. The competitors are only SSD SKUs</t>
-  </si>
-  <si>
-    <t>Energy Display</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей</t>
-  </si>
-  <si>
-    <t>Energy Displays</t>
-  </si>
-  <si>
-    <t>184
+    <t xml:space="preserve">SSD Display 3d: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 3d: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrance of SSD section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 3d: Lead SKU Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й: Основной СКЮ Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 1.5L share on Display. The competitors are only SSD SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184
 185
 186</t>
   </si>
   <si>
-    <t>Energy Display: Facings</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>Energy Display: Zone</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Зона</t>
-  </si>
-  <si>
-    <t>Beer Section</t>
-  </si>
-  <si>
-    <t>Energy Display: Lead SKU Burn Original/Monster Green 0.5L</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Основной СКЮ Берн Оригинальный - 0.5л/Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>187
+    <t xml:space="preserve">Energy Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beer Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display: Lead SKU Burn Original/Monster Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Основной СКЮ Берн Оригинальный - 0.5л/Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187
 188</t>
   </si>
   <si>
-    <t>Energy Display: Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Original - 0.5L share on Display</t>
-  </si>
-  <si>
-    <t>Energy Display: Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Monster Green - 0.5L share on Display</t>
-  </si>
-  <si>
-    <t>STANDARD 22</t>
-  </si>
-  <si>
-    <t>Cooler: Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t>sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t>Plus</t>
-  </si>
-  <si>
-    <t>Store Master Data attr15</t>
-  </si>
-  <si>
-    <t>190
+    <t xml:space="preserve">Energy Display: Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Original - 0.5L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display: Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Green - 0.5L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Master Data attr15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190
 191</t>
   </si>
   <si>
-    <t>Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t>number of coolers with facings target and fullness target</t>
-  </si>
-  <si>
-    <t>TCCC</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>Cooler</t>
-  </si>
-  <si>
-    <t>Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t>facings TCCC/40</t>
-  </si>
-  <si>
-    <t>Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t>Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t>Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t>NUM_SCENES</t>
-  </si>
-  <si>
-    <t>1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
-  </si>
-  <si>
-    <t>Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t>CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t>Cooler: Max 23</t>
-  </si>
-  <si>
-    <t>Холодильники: Максимум 23 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t>number of SKU per Door RANGE</t>
-  </si>
-  <si>
-    <t>Cooler: Merch Priorty STD</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты</t>
-  </si>
-  <si>
-    <t>195
+    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of coolers with facings target and fullness target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facings TCCC/40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM_SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Max 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 23 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of SKU per Door RANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Merch Priorty STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195
 196
 197
 198
@@ -1840,292 +1844,292 @@
 210</t>
   </si>
   <si>
-    <t>Cooler: BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola Zero - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола Зеро - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>Cooler: ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фьюз Зеленый - 0.5л любой</t>
-  </si>
-  <si>
-    <t>ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t>5449000233615, 5449000189370</t>
-  </si>
-  <si>
-    <t>Cooler: ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фьюз Черный - 0.5л любой</t>
-  </si>
-  <si>
-    <t>ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t>5449000189301, 5449000189332, 5449000193124</t>
-  </si>
-  <si>
-    <t>Cooler: Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>Cooler:  w/o other products</t>
-  </si>
-  <si>
-    <t>Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t>Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t>RGM Activations</t>
-  </si>
-  <si>
-    <t>RGM Активации</t>
-  </si>
-  <si>
-    <t>213
+    <t xml:space="preserve">Cooler: BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фьюз Зеленый - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000233615, 5449000189370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фьюз Черный - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler:  w/o other products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213
 214
 215
 216</t>
   </si>
   <si>
-    <t>RGM Activations SAP</t>
-  </si>
-  <si>
-    <t>RGM Activations: SSD with Meal</t>
-  </si>
-  <si>
-    <t>RGM Активации: SSD с едой</t>
-  </si>
-  <si>
-    <t>SSD with Meal</t>
-  </si>
-  <si>
-    <t>RGM Activations: Juice &amp; Meal</t>
-  </si>
-  <si>
-    <t>RGM Активации: Сок с едой</t>
-  </si>
-  <si>
-    <t>Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
-  </si>
-  <si>
-    <t>RGM Activations: On-the-go</t>
-  </si>
-  <si>
-    <t>RGM Активации: На ходу</t>
-  </si>
-  <si>
-    <t>On-the-go</t>
-  </si>
-  <si>
-    <t>RGM Activations: Screen time</t>
-  </si>
-  <si>
-    <t>RGM Активации: У Экрана</t>
-  </si>
-  <si>
-    <t>Screen time</t>
-  </si>
-  <si>
-    <t>Promo Displays</t>
-  </si>
-  <si>
-    <t>Промо дисплеи</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>Promo displays SAP</t>
-  </si>
-  <si>
-    <t>Promo Displays: Facings</t>
-  </si>
-  <si>
-    <t>Промо дисплеи: Фейсинги</t>
-  </si>
-  <si>
-    <t>check_number_of_scenes_with_facings_target</t>
-  </si>
-  <si>
-    <t>COUNT</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>LOCAL 2</t>
-  </si>
-  <si>
-    <t>number of KPI Passed</t>
-  </si>
-  <si>
-    <t>Session level</t>
-  </si>
-  <si>
-    <t>LOCAL 6</t>
-  </si>
-  <si>
-    <t>KPI result</t>
-  </si>
-  <si>
-    <t>STANDARD 18</t>
-  </si>
-  <si>
-    <t>sum of KPI result</t>
-  </si>
-  <si>
-    <t>LOCAL 5</t>
-  </si>
-  <si>
-    <t>LOCAL 7</t>
-  </si>
-  <si>
-    <t>Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t>Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t>Number of doors according to guide for all Coolers</t>
-  </si>
-  <si>
-    <t>Scene level</t>
-  </si>
-  <si>
-    <t>Attribute 1</t>
-  </si>
-  <si>
-    <t>POP Activated</t>
-  </si>
-  <si>
-    <t>Y for all Displays</t>
-  </si>
-  <si>
-    <t>Attribute 2</t>
-  </si>
-  <si>
-    <t>Experiantial Activation</t>
-  </si>
-  <si>
-    <t>N for all Displays</t>
-  </si>
-  <si>
-    <t>Scene Sub Type 1</t>
-  </si>
-  <si>
-    <t>Coolers and Displays Zones</t>
-  </si>
-  <si>
-    <t>Scene attribute for all Cooler and Displays</t>
-  </si>
-  <si>
-    <t>Attribute 3</t>
-  </si>
-  <si>
-    <t>Displays Priority Occasion</t>
-  </si>
-  <si>
-    <t>No_O_A</t>
-  </si>
-  <si>
-    <t>MealsAtHo</t>
-  </si>
-  <si>
-    <t>MeTimeAtH</t>
-  </si>
-  <si>
-    <t>Scene</t>
-  </si>
-  <si>
-    <t>KPI Score Formula</t>
-  </si>
-  <si>
-    <t>KPI weighted Score</t>
-  </si>
-  <si>
-    <t>Will be added on the 16th of December</t>
+    <t xml:space="preserve">RGM Activations SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: SSD with Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: SSD с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD with Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Juice &amp; Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: Сок с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: On-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: На ходу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Screen time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: У Экрана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промо дисплеи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo displays SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Displays: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промо дисплеи: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check_number_of_scenes_with_facings_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of doors according to guide for all Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP Activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y for all Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiantial Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N for all Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Sub Type 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers and Displays Zones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene attribute for all Cooler and Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displays Priority Occasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MealsAtHo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeTimeAtH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Score Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI weighted Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will be added on the 16th of December</t>
   </si>
 </sst>
 </file>
@@ -2133,7 +2137,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
@@ -2354,7 +2358,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2767,6 +2771,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2955,23 +2963,18 @@
   <dimension ref="A1:AO235"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F200" activeCellId="0" sqref="F200"/>
+      <selection pane="bottomLeft" activeCell="M192" activeCellId="0" sqref="M192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="32" min="14" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="1025" min="34" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3238866396761"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.2591093117409"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.5101214574899"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.914979757085"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.2267206477733"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="83.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19345,13 +19348,17 @@
         <v>48</v>
       </c>
       <c r="AC195" s="53" t="s">
-        <v>57</v>
+        <v>543</v>
       </c>
       <c r="AD195" s="66" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AE195" s="53"/>
-      <c r="AF195" s="53"/>
+      <c r="AE195" s="103" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AF195" s="81" t="n">
+        <v>1</v>
+      </c>
       <c r="AG195" s="101" t="s">
         <v>536</v>
       </c>
@@ -19367,7 +19374,7 @@
         <v>194</v>
       </c>
       <c r="AM195" s="70" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AN195" s="91" t="s">
         <v>537</v>
@@ -19391,10 +19398,10 @@
         <v>312</v>
       </c>
       <c r="F196" s="52" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G196" s="27" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H196" s="53" t="s">
         <v>52</v>
@@ -19476,10 +19483,10 @@
         <v>312</v>
       </c>
       <c r="F197" s="52" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G197" s="27" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H197" s="53" t="s">
         <v>52</v>
@@ -19561,10 +19568,10 @@
         <v>312</v>
       </c>
       <c r="F198" s="52" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G198" s="27" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H198" s="53" t="s">
         <v>52</v>
@@ -19646,10 +19653,10 @@
         <v>312</v>
       </c>
       <c r="F199" s="52" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G199" s="27" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H199" s="53" t="s">
         <v>52</v>
@@ -19730,11 +19737,11 @@
       <c r="E200" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="F200" s="103" t="s">
-        <v>552</v>
+      <c r="F200" s="104" t="s">
+        <v>553</v>
       </c>
       <c r="G200" s="33" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H200" s="53" t="s">
         <v>52</v>
@@ -19747,7 +19754,7 @@
       <c r="L200" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="M200" s="104" t="s">
+      <c r="M200" s="105" t="s">
         <v>60</v>
       </c>
       <c r="N200" s="55"/>
@@ -19816,10 +19823,10 @@
         <v>312</v>
       </c>
       <c r="F201" s="52" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G201" s="27" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H201" s="53" t="s">
         <v>52</v>
@@ -19900,11 +19907,11 @@
       <c r="E202" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="F202" s="103" t="s">
-        <v>556</v>
+      <c r="F202" s="104" t="s">
+        <v>557</v>
       </c>
       <c r="G202" s="33" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H202" s="53" t="s">
         <v>52</v>
@@ -19917,7 +19924,7 @@
       <c r="L202" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="M202" s="104" t="s">
+      <c r="M202" s="105" t="s">
         <v>75</v>
       </c>
       <c r="N202" s="55"/>
@@ -19986,10 +19993,10 @@
         <v>312</v>
       </c>
       <c r="F203" s="52" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G203" s="27" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H203" s="53" t="s">
         <v>52</v>
@@ -20071,10 +20078,10 @@
         <v>312</v>
       </c>
       <c r="F204" s="52" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G204" s="27" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H204" s="53" t="s">
         <v>52</v>
@@ -20155,11 +20162,11 @@
       <c r="E205" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="F205" s="103" t="s">
-        <v>562</v>
+      <c r="F205" s="104" t="s">
+        <v>563</v>
       </c>
       <c r="G205" s="33" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H205" s="53" t="s">
         <v>52</v>
@@ -20172,7 +20179,7 @@
       <c r="L205" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="M205" s="104" t="s">
+      <c r="M205" s="105" t="s">
         <v>84</v>
       </c>
       <c r="N205" s="55"/>
@@ -20241,10 +20248,10 @@
         <v>312</v>
       </c>
       <c r="F206" s="52" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G206" s="33" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H206" s="53" t="s">
         <v>52</v>
@@ -20255,10 +20262,10 @@
       <c r="J206" s="53"/>
       <c r="K206" s="53"/>
       <c r="L206" s="38" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M206" s="62" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N206" s="55"/>
       <c r="O206" s="55"/>
@@ -20326,10 +20333,10 @@
         <v>312</v>
       </c>
       <c r="F207" s="52" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G207" s="33" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H207" s="53" t="s">
         <v>52</v>
@@ -20340,10 +20347,10 @@
       <c r="J207" s="53"/>
       <c r="K207" s="53"/>
       <c r="L207" s="38" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M207" s="62" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N207" s="55"/>
       <c r="O207" s="55"/>
@@ -20411,10 +20418,10 @@
         <v>312</v>
       </c>
       <c r="F208" s="52" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G208" s="33" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H208" s="53" t="s">
         <v>52</v>
@@ -20496,10 +20503,10 @@
         <v>312</v>
       </c>
       <c r="F209" s="52" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G209" s="33" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H209" s="53" t="s">
         <v>52</v>
@@ -20581,10 +20588,10 @@
         <v>312</v>
       </c>
       <c r="F210" s="52" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G210" s="33" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H210" s="53" t="s">
         <v>52</v>
@@ -20665,11 +20672,11 @@
       <c r="E211" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="F211" s="103" t="s">
-        <v>578</v>
+      <c r="F211" s="104" t="s">
+        <v>579</v>
       </c>
       <c r="G211" s="33" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H211" s="53" t="s">
         <v>52</v>
@@ -20682,7 +20689,7 @@
       <c r="L211" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="M211" s="104" t="s">
+      <c r="M211" s="105" t="s">
         <v>87</v>
       </c>
       <c r="N211" s="55"/>
@@ -20751,13 +20758,13 @@
         <v>312</v>
       </c>
       <c r="F212" s="52" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G212" s="58" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H212" s="63" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I212" s="53"/>
       <c r="J212" s="53"/>
@@ -20832,10 +20839,10 @@
         <v>312</v>
       </c>
       <c r="F213" s="52" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G213" s="58" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H213" s="52" t="s">
         <v>315</v>
@@ -20884,11 +20891,11 @@
       <c r="AL213" s="31" t="n">
         <v>212</v>
       </c>
-      <c r="AM213" s="105" t="s">
-        <v>585</v>
-      </c>
-      <c r="AN213" s="106" t="s">
+      <c r="AM213" s="106" t="s">
         <v>586</v>
+      </c>
+      <c r="AN213" s="107" t="s">
+        <v>587</v>
       </c>
       <c r="AO213" s="12"/>
     </row>
@@ -20909,10 +20916,10 @@
         <v>312</v>
       </c>
       <c r="F214" s="52" t="s">
-        <v>587</v>
-      </c>
-      <c r="G214" s="107" t="s">
         <v>588</v>
+      </c>
+      <c r="G214" s="108" t="s">
+        <v>589</v>
       </c>
       <c r="H214" s="52" t="s">
         <v>389</v>
@@ -20937,11 +20944,11 @@
       <c r="T214" s="53"/>
       <c r="U214" s="53"/>
       <c r="V214" s="53"/>
-      <c r="W214" s="108" t="s">
-        <v>589</v>
+      <c r="W214" s="109" t="s">
+        <v>590</v>
       </c>
       <c r="X214" s="53"/>
-      <c r="Y214" s="109"/>
+      <c r="Y214" s="110"/>
       <c r="Z214" s="53"/>
       <c r="AA214" s="53"/>
       <c r="AB214" s="38" t="s">
@@ -20967,7 +20974,7 @@
       </c>
       <c r="AM214" s="52"/>
       <c r="AN214" s="52" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AO214" s="12"/>
     </row>
@@ -20988,10 +20995,10 @@
         <v>312</v>
       </c>
       <c r="F215" s="52" t="s">
-        <v>590</v>
-      </c>
-      <c r="G215" s="107" t="s">
         <v>591</v>
+      </c>
+      <c r="G215" s="108" t="s">
+        <v>592</v>
       </c>
       <c r="H215" s="52" t="s">
         <v>389</v>
@@ -21016,11 +21023,11 @@
       <c r="T215" s="53"/>
       <c r="U215" s="53"/>
       <c r="V215" s="53"/>
-      <c r="W215" s="108" t="s">
-        <v>592</v>
+      <c r="W215" s="109" t="s">
+        <v>593</v>
       </c>
       <c r="X215" s="53"/>
-      <c r="Y215" s="109"/>
+      <c r="Y215" s="110"/>
       <c r="Z215" s="53"/>
       <c r="AA215" s="53"/>
       <c r="AB215" s="38" t="s">
@@ -21046,7 +21053,7 @@
       </c>
       <c r="AM215" s="52"/>
       <c r="AN215" s="52" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AO215" s="12"/>
     </row>
@@ -21067,10 +21074,10 @@
         <v>312</v>
       </c>
       <c r="F216" s="52" t="s">
-        <v>593</v>
-      </c>
-      <c r="G216" s="107" t="s">
         <v>594</v>
+      </c>
+      <c r="G216" s="108" t="s">
+        <v>595</v>
       </c>
       <c r="H216" s="52" t="s">
         <v>389</v>
@@ -21095,11 +21102,11 @@
       <c r="T216" s="53"/>
       <c r="U216" s="53"/>
       <c r="V216" s="53"/>
-      <c r="W216" s="108" t="s">
-        <v>595</v>
+      <c r="W216" s="109" t="s">
+        <v>596</v>
       </c>
       <c r="X216" s="53"/>
-      <c r="Y216" s="109"/>
+      <c r="Y216" s="110"/>
       <c r="Z216" s="53"/>
       <c r="AA216" s="53"/>
       <c r="AB216" s="38" t="s">
@@ -21125,7 +21132,7 @@
       </c>
       <c r="AM216" s="52"/>
       <c r="AN216" s="52" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AO216" s="12"/>
     </row>
@@ -21146,10 +21153,10 @@
         <v>312</v>
       </c>
       <c r="F217" s="52" t="s">
-        <v>596</v>
-      </c>
-      <c r="G217" s="107" t="s">
         <v>597</v>
+      </c>
+      <c r="G217" s="108" t="s">
+        <v>598</v>
       </c>
       <c r="H217" s="52" t="s">
         <v>389</v>
@@ -21174,11 +21181,11 @@
       <c r="T217" s="53"/>
       <c r="U217" s="53"/>
       <c r="V217" s="53"/>
-      <c r="W217" s="108" t="s">
-        <v>598</v>
+      <c r="W217" s="109" t="s">
+        <v>599</v>
       </c>
       <c r="X217" s="53"/>
-      <c r="Y217" s="109"/>
+      <c r="Y217" s="110"/>
       <c r="Z217" s="53"/>
       <c r="AA217" s="53"/>
       <c r="AB217" s="38" t="s">
@@ -21204,7 +21211,7 @@
       </c>
       <c r="AM217" s="52"/>
       <c r="AN217" s="52" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AO217" s="38"/>
     </row>
@@ -21221,14 +21228,14 @@
       <c r="D218" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="E218" s="110" t="s">
+      <c r="E218" s="111" t="s">
         <v>312</v>
       </c>
       <c r="F218" s="52" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G218" s="58" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H218" s="76" t="s">
         <v>518</v>
@@ -21253,7 +21260,7 @@
       <c r="T218" s="53"/>
       <c r="U218" s="53"/>
       <c r="V218" s="53" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="W218" s="53"/>
       <c r="X218" s="53"/>
@@ -21281,11 +21288,11 @@
       <c r="AL218" s="22" t="n">
         <v>217</v>
       </c>
-      <c r="AM218" s="111" t="s">
-        <v>601</v>
+      <c r="AM218" s="112" t="s">
+        <v>602</v>
       </c>
       <c r="AN218" s="91" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AO218" s="12"/>
     </row>
@@ -21302,17 +21309,17 @@
       <c r="D219" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="E219" s="110" t="s">
+      <c r="E219" s="111" t="s">
         <v>312</v>
       </c>
       <c r="F219" s="52" t="s">
-        <v>603</v>
-      </c>
-      <c r="G219" s="107" t="s">
         <v>604</v>
       </c>
-      <c r="H219" s="112" t="s">
+      <c r="G219" s="108" t="s">
         <v>605</v>
+      </c>
+      <c r="H219" s="113" t="s">
+        <v>606</v>
       </c>
       <c r="I219" s="53" t="n">
         <v>1</v>
@@ -21340,7 +21347,7 @@
       <c r="T219" s="53"/>
       <c r="U219" s="53"/>
       <c r="V219" s="53" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="W219" s="53"/>
       <c r="X219" s="53"/>
@@ -21351,7 +21358,7 @@
         <v>48</v>
       </c>
       <c r="AC219" s="53" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AD219" s="66" t="n">
         <v>0</v>
@@ -21369,8 +21376,8 @@
         <v>218</v>
       </c>
       <c r="AM219" s="12"/>
-      <c r="AN219" s="113" t="s">
-        <v>599</v>
+      <c r="AN219" s="114" t="s">
+        <v>600</v>
       </c>
       <c r="AO219" s="12"/>
     </row>
@@ -21384,60 +21391,60 @@
       <c r="C220" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D220" s="114" t="s">
-        <v>607</v>
-      </c>
-      <c r="E220" s="115" t="s">
+      <c r="D220" s="115" t="s">
         <v>608</v>
       </c>
-      <c r="F220" s="116" t="s">
+      <c r="E220" s="116" t="s">
+        <v>609</v>
+      </c>
+      <c r="F220" s="117" t="s">
         <v>319</v>
       </c>
-      <c r="G220" s="117"/>
-      <c r="H220" s="118" t="s">
-        <v>609</v>
-      </c>
-      <c r="I220" s="119" t="s">
+      <c r="G220" s="118"/>
+      <c r="H220" s="119" t="s">
         <v>610</v>
       </c>
-      <c r="J220" s="117"/>
-      <c r="K220" s="117"/>
-      <c r="L220" s="117"/>
-      <c r="M220" s="117"/>
-      <c r="N220" s="117"/>
-      <c r="O220" s="117"/>
-      <c r="P220" s="117"/>
-      <c r="Q220" s="117"/>
-      <c r="R220" s="117"/>
-      <c r="S220" s="117"/>
-      <c r="T220" s="117"/>
-      <c r="U220" s="117"/>
-      <c r="V220" s="117"/>
-      <c r="W220" s="117"/>
-      <c r="X220" s="117"/>
-      <c r="Y220" s="117"/>
-      <c r="Z220" s="117"/>
-      <c r="AA220" s="117"/>
-      <c r="AB220" s="117"/>
-      <c r="AC220" s="117"/>
-      <c r="AD220" s="120" t="n">
+      <c r="I220" s="120" t="s">
+        <v>611</v>
+      </c>
+      <c r="J220" s="118"/>
+      <c r="K220" s="118"/>
+      <c r="L220" s="118"/>
+      <c r="M220" s="118"/>
+      <c r="N220" s="118"/>
+      <c r="O220" s="118"/>
+      <c r="P220" s="118"/>
+      <c r="Q220" s="118"/>
+      <c r="R220" s="118"/>
+      <c r="S220" s="118"/>
+      <c r="T220" s="118"/>
+      <c r="U220" s="118"/>
+      <c r="V220" s="118"/>
+      <c r="W220" s="118"/>
+      <c r="X220" s="118"/>
+      <c r="Y220" s="118"/>
+      <c r="Z220" s="118"/>
+      <c r="AA220" s="118"/>
+      <c r="AB220" s="118"/>
+      <c r="AC220" s="118"/>
+      <c r="AD220" s="121" t="n">
         <v>0</v>
       </c>
-      <c r="AE220" s="117"/>
-      <c r="AF220" s="117"/>
-      <c r="AG220" s="117"/>
-      <c r="AH220" s="117"/>
-      <c r="AI220" s="117"/>
-      <c r="AJ220" s="121" t="s">
+      <c r="AE220" s="118"/>
+      <c r="AF220" s="118"/>
+      <c r="AG220" s="118"/>
+      <c r="AH220" s="118"/>
+      <c r="AI220" s="118"/>
+      <c r="AJ220" s="122" t="s">
         <v>312</v>
       </c>
-      <c r="AK220" s="121"/>
+      <c r="AK220" s="122"/>
       <c r="AL220" s="22" t="n">
         <v>219</v>
       </c>
-      <c r="AM220" s="117"/>
-      <c r="AN220" s="117"/>
-      <c r="AO220" s="117"/>
+      <c r="AM220" s="118"/>
+      <c r="AN220" s="118"/>
+      <c r="AO220" s="118"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="25" t="n">
@@ -21449,60 +21456,60 @@
       <c r="C221" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D221" s="114" t="s">
-        <v>607</v>
+      <c r="D221" s="115" t="s">
+        <v>608</v>
       </c>
       <c r="E221" s="91" t="s">
+        <v>612</v>
+      </c>
+      <c r="F221" s="123" t="s">
+        <v>587</v>
+      </c>
+      <c r="G221" s="118"/>
+      <c r="H221" s="118" t="s">
+        <v>613</v>
+      </c>
+      <c r="I221" s="120" t="s">
         <v>611</v>
       </c>
-      <c r="F221" s="122" t="s">
-        <v>586</v>
-      </c>
-      <c r="G221" s="117"/>
-      <c r="H221" s="117" t="s">
-        <v>612</v>
-      </c>
-      <c r="I221" s="119" t="s">
-        <v>610</v>
-      </c>
-      <c r="J221" s="117"/>
-      <c r="K221" s="117"/>
-      <c r="L221" s="117"/>
-      <c r="M221" s="117"/>
-      <c r="N221" s="117"/>
-      <c r="O221" s="117"/>
-      <c r="P221" s="117"/>
-      <c r="Q221" s="117"/>
-      <c r="R221" s="117"/>
-      <c r="S221" s="117"/>
-      <c r="T221" s="117"/>
-      <c r="U221" s="117"/>
-      <c r="V221" s="117"/>
-      <c r="W221" s="117"/>
-      <c r="X221" s="117"/>
-      <c r="Y221" s="117"/>
-      <c r="Z221" s="117"/>
-      <c r="AA221" s="117"/>
-      <c r="AB221" s="117"/>
-      <c r="AC221" s="117"/>
-      <c r="AD221" s="120" t="n">
+      <c r="J221" s="118"/>
+      <c r="K221" s="118"/>
+      <c r="L221" s="118"/>
+      <c r="M221" s="118"/>
+      <c r="N221" s="118"/>
+      <c r="O221" s="118"/>
+      <c r="P221" s="118"/>
+      <c r="Q221" s="118"/>
+      <c r="R221" s="118"/>
+      <c r="S221" s="118"/>
+      <c r="T221" s="118"/>
+      <c r="U221" s="118"/>
+      <c r="V221" s="118"/>
+      <c r="W221" s="118"/>
+      <c r="X221" s="118"/>
+      <c r="Y221" s="118"/>
+      <c r="Z221" s="118"/>
+      <c r="AA221" s="118"/>
+      <c r="AB221" s="118"/>
+      <c r="AC221" s="118"/>
+      <c r="AD221" s="121" t="n">
         <v>0</v>
       </c>
-      <c r="AE221" s="117"/>
-      <c r="AF221" s="117"/>
-      <c r="AG221" s="117"/>
-      <c r="AH221" s="117"/>
-      <c r="AI221" s="117"/>
-      <c r="AJ221" s="121" t="s">
+      <c r="AE221" s="118"/>
+      <c r="AF221" s="118"/>
+      <c r="AG221" s="118"/>
+      <c r="AH221" s="118"/>
+      <c r="AI221" s="118"/>
+      <c r="AJ221" s="122" t="s">
         <v>312</v>
       </c>
-      <c r="AK221" s="121"/>
+      <c r="AK221" s="122"/>
       <c r="AL221" s="31" t="n">
         <v>220</v>
       </c>
-      <c r="AM221" s="117"/>
-      <c r="AN221" s="117"/>
-      <c r="AO221" s="117"/>
+      <c r="AM221" s="118"/>
+      <c r="AN221" s="118"/>
+      <c r="AO221" s="118"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="15" t="n">
@@ -21514,60 +21521,60 @@
       <c r="C222" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D222" s="123" t="s">
-        <v>607</v>
+      <c r="D222" s="124" t="s">
+        <v>608</v>
       </c>
       <c r="E222" s="91" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F222" s="91" t="s">
         <v>537</v>
       </c>
-      <c r="G222" s="117"/>
-      <c r="H222" s="117" t="s">
-        <v>614</v>
-      </c>
-      <c r="I222" s="119" t="s">
-        <v>610</v>
-      </c>
-      <c r="J222" s="117"/>
-      <c r="K222" s="117"/>
-      <c r="L222" s="117"/>
-      <c r="M222" s="117"/>
-      <c r="N222" s="117"/>
-      <c r="O222" s="117"/>
-      <c r="P222" s="117"/>
-      <c r="Q222" s="117"/>
-      <c r="R222" s="117"/>
-      <c r="S222" s="117"/>
-      <c r="T222" s="117"/>
-      <c r="U222" s="117"/>
-      <c r="V222" s="117"/>
-      <c r="W222" s="117"/>
-      <c r="X222" s="117"/>
-      <c r="Y222" s="117"/>
-      <c r="Z222" s="117"/>
-      <c r="AA222" s="117"/>
-      <c r="AB222" s="117"/>
-      <c r="AC222" s="117"/>
-      <c r="AD222" s="124" t="n">
+      <c r="G222" s="118"/>
+      <c r="H222" s="118" t="s">
+        <v>615</v>
+      </c>
+      <c r="I222" s="120" t="s">
+        <v>611</v>
+      </c>
+      <c r="J222" s="118"/>
+      <c r="K222" s="118"/>
+      <c r="L222" s="118"/>
+      <c r="M222" s="118"/>
+      <c r="N222" s="118"/>
+      <c r="O222" s="118"/>
+      <c r="P222" s="118"/>
+      <c r="Q222" s="118"/>
+      <c r="R222" s="118"/>
+      <c r="S222" s="118"/>
+      <c r="T222" s="118"/>
+      <c r="U222" s="118"/>
+      <c r="V222" s="118"/>
+      <c r="W222" s="118"/>
+      <c r="X222" s="118"/>
+      <c r="Y222" s="118"/>
+      <c r="Z222" s="118"/>
+      <c r="AA222" s="118"/>
+      <c r="AB222" s="118"/>
+      <c r="AC222" s="118"/>
+      <c r="AD222" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="AE222" s="117"/>
-      <c r="AF222" s="117"/>
-      <c r="AG222" s="117"/>
-      <c r="AH222" s="117"/>
-      <c r="AI222" s="117"/>
-      <c r="AJ222" s="121" t="s">
+      <c r="AE222" s="118"/>
+      <c r="AF222" s="118"/>
+      <c r="AG222" s="118"/>
+      <c r="AH222" s="118"/>
+      <c r="AI222" s="118"/>
+      <c r="AJ222" s="122" t="s">
         <v>312</v>
       </c>
-      <c r="AK222" s="121"/>
+      <c r="AK222" s="122"/>
       <c r="AL222" s="22" t="n">
         <v>221</v>
       </c>
-      <c r="AM222" s="117"/>
-      <c r="AN222" s="117"/>
-      <c r="AO222" s="117"/>
+      <c r="AM222" s="118"/>
+      <c r="AN222" s="118"/>
+      <c r="AO222" s="118"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="25" t="n">
@@ -21579,58 +21586,58 @@
       <c r="C223" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D223" s="123" t="s">
-        <v>607</v>
+      <c r="D223" s="124" t="s">
+        <v>608</v>
       </c>
       <c r="E223" s="91" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F223" s="91" t="s">
-        <v>602</v>
-      </c>
-      <c r="G223" s="117"/>
-      <c r="H223" s="117" t="s">
-        <v>612</v>
-      </c>
-      <c r="I223" s="119" t="s">
-        <v>610</v>
-      </c>
-      <c r="J223" s="117"/>
-      <c r="K223" s="117"/>
-      <c r="L223" s="117"/>
-      <c r="M223" s="117"/>
-      <c r="N223" s="117"/>
-      <c r="O223" s="117"/>
-      <c r="P223" s="117"/>
-      <c r="Q223" s="117"/>
-      <c r="R223" s="117"/>
-      <c r="S223" s="117"/>
-      <c r="T223" s="117"/>
-      <c r="U223" s="117"/>
-      <c r="V223" s="117"/>
-      <c r="W223" s="117"/>
-      <c r="X223" s="117"/>
-      <c r="Y223" s="117"/>
-      <c r="Z223" s="117"/>
-      <c r="AA223" s="117"/>
-      <c r="AB223" s="117"/>
-      <c r="AC223" s="117"/>
-      <c r="AD223" s="124" t="n">
+        <v>603</v>
+      </c>
+      <c r="G223" s="118"/>
+      <c r="H223" s="118" t="s">
+        <v>613</v>
+      </c>
+      <c r="I223" s="120" t="s">
+        <v>611</v>
+      </c>
+      <c r="J223" s="118"/>
+      <c r="K223" s="118"/>
+      <c r="L223" s="118"/>
+      <c r="M223" s="118"/>
+      <c r="N223" s="118"/>
+      <c r="O223" s="118"/>
+      <c r="P223" s="118"/>
+      <c r="Q223" s="118"/>
+      <c r="R223" s="118"/>
+      <c r="S223" s="118"/>
+      <c r="T223" s="118"/>
+      <c r="U223" s="118"/>
+      <c r="V223" s="118"/>
+      <c r="W223" s="118"/>
+      <c r="X223" s="118"/>
+      <c r="Y223" s="118"/>
+      <c r="Z223" s="118"/>
+      <c r="AA223" s="118"/>
+      <c r="AB223" s="118"/>
+      <c r="AC223" s="118"/>
+      <c r="AD223" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="AE223" s="117"/>
-      <c r="AF223" s="117"/>
-      <c r="AG223" s="117"/>
-      <c r="AH223" s="117"/>
-      <c r="AI223" s="117"/>
-      <c r="AJ223" s="121"/>
-      <c r="AK223" s="121"/>
+      <c r="AE223" s="118"/>
+      <c r="AF223" s="118"/>
+      <c r="AG223" s="118"/>
+      <c r="AH223" s="118"/>
+      <c r="AI223" s="118"/>
+      <c r="AJ223" s="122"/>
+      <c r="AK223" s="122"/>
       <c r="AL223" s="31" t="n">
         <v>222</v>
       </c>
-      <c r="AM223" s="117"/>
-      <c r="AN223" s="117"/>
-      <c r="AO223" s="117"/>
+      <c r="AM223" s="118"/>
+      <c r="AN223" s="118"/>
+      <c r="AO223" s="118"/>
     </row>
     <row r="224" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="15" t="n">
@@ -21642,58 +21649,58 @@
       <c r="C224" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D224" s="123" t="s">
-        <v>607</v>
+      <c r="D224" s="124" t="s">
+        <v>608</v>
       </c>
       <c r="E224" s="91" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F224" s="91" t="s">
         <v>400</v>
       </c>
-      <c r="G224" s="117"/>
-      <c r="H224" s="118" t="s">
-        <v>609</v>
-      </c>
-      <c r="I224" s="119" t="s">
+      <c r="G224" s="118"/>
+      <c r="H224" s="119" t="s">
         <v>610</v>
       </c>
-      <c r="J224" s="117"/>
-      <c r="K224" s="117"/>
-      <c r="L224" s="117"/>
-      <c r="M224" s="117"/>
-      <c r="N224" s="117"/>
-      <c r="O224" s="117"/>
-      <c r="P224" s="117"/>
-      <c r="Q224" s="117"/>
-      <c r="R224" s="117"/>
-      <c r="S224" s="117"/>
-      <c r="T224" s="117"/>
-      <c r="U224" s="117"/>
-      <c r="V224" s="117"/>
-      <c r="W224" s="117"/>
-      <c r="X224" s="117"/>
-      <c r="Y224" s="117"/>
-      <c r="Z224" s="117"/>
-      <c r="AA224" s="117"/>
-      <c r="AB224" s="117"/>
-      <c r="AC224" s="117"/>
-      <c r="AD224" s="124" t="n">
+      <c r="I224" s="120" t="s">
+        <v>611</v>
+      </c>
+      <c r="J224" s="118"/>
+      <c r="K224" s="118"/>
+      <c r="L224" s="118"/>
+      <c r="M224" s="118"/>
+      <c r="N224" s="118"/>
+      <c r="O224" s="118"/>
+      <c r="P224" s="118"/>
+      <c r="Q224" s="118"/>
+      <c r="R224" s="118"/>
+      <c r="S224" s="118"/>
+      <c r="T224" s="118"/>
+      <c r="U224" s="118"/>
+      <c r="V224" s="118"/>
+      <c r="W224" s="118"/>
+      <c r="X224" s="118"/>
+      <c r="Y224" s="118"/>
+      <c r="Z224" s="118"/>
+      <c r="AA224" s="118"/>
+      <c r="AB224" s="118"/>
+      <c r="AC224" s="118"/>
+      <c r="AD224" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="AE224" s="117"/>
-      <c r="AF224" s="117"/>
-      <c r="AG224" s="117"/>
-      <c r="AH224" s="117"/>
-      <c r="AI224" s="117"/>
-      <c r="AJ224" s="121"/>
-      <c r="AK224" s="121"/>
+      <c r="AE224" s="118"/>
+      <c r="AF224" s="118"/>
+      <c r="AG224" s="118"/>
+      <c r="AH224" s="118"/>
+      <c r="AI224" s="118"/>
+      <c r="AJ224" s="122"/>
+      <c r="AK224" s="122"/>
       <c r="AL224" s="22" t="n">
         <v>223</v>
       </c>
-      <c r="AM224" s="117"/>
-      <c r="AN224" s="117"/>
-      <c r="AO224" s="117"/>
+      <c r="AM224" s="118"/>
+      <c r="AN224" s="118"/>
+      <c r="AO224" s="118"/>
     </row>
     <row r="225" customFormat="false" ht="53.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="25" t="n">
@@ -21705,60 +21712,60 @@
       <c r="C225" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D225" s="123" t="s">
-        <v>607</v>
+      <c r="D225" s="124" t="s">
+        <v>608</v>
       </c>
       <c r="E225" s="91" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F225" s="91" t="s">
-        <v>618</v>
-      </c>
-      <c r="G225" s="117"/>
-      <c r="H225" s="118" t="s">
         <v>619</v>
       </c>
-      <c r="I225" s="119" t="s">
+      <c r="G225" s="118"/>
+      <c r="H225" s="119" t="s">
         <v>620</v>
       </c>
-      <c r="J225" s="117"/>
-      <c r="K225" s="117"/>
-      <c r="L225" s="117"/>
-      <c r="M225" s="117"/>
-      <c r="N225" s="117"/>
-      <c r="O225" s="117"/>
-      <c r="P225" s="117"/>
-      <c r="Q225" s="117"/>
-      <c r="R225" s="117"/>
-      <c r="S225" s="117"/>
-      <c r="T225" s="117"/>
-      <c r="U225" s="117"/>
-      <c r="V225" s="117"/>
-      <c r="W225" s="117"/>
-      <c r="X225" s="117"/>
-      <c r="Y225" s="117"/>
-      <c r="Z225" s="117"/>
-      <c r="AA225" s="117"/>
-      <c r="AB225" s="117"/>
-      <c r="AC225" s="117"/>
-      <c r="AD225" s="117" t="n">
+      <c r="I225" s="120" t="s">
+        <v>621</v>
+      </c>
+      <c r="J225" s="118"/>
+      <c r="K225" s="118"/>
+      <c r="L225" s="118"/>
+      <c r="M225" s="118"/>
+      <c r="N225" s="118"/>
+      <c r="O225" s="118"/>
+      <c r="P225" s="118"/>
+      <c r="Q225" s="118"/>
+      <c r="R225" s="118"/>
+      <c r="S225" s="118"/>
+      <c r="T225" s="118"/>
+      <c r="U225" s="118"/>
+      <c r="V225" s="118"/>
+      <c r="W225" s="118"/>
+      <c r="X225" s="118"/>
+      <c r="Y225" s="118"/>
+      <c r="Z225" s="118"/>
+      <c r="AA225" s="118"/>
+      <c r="AB225" s="118"/>
+      <c r="AC225" s="118"/>
+      <c r="AD225" s="118" t="n">
         <v>0</v>
       </c>
-      <c r="AE225" s="117"/>
-      <c r="AF225" s="117"/>
-      <c r="AG225" s="117"/>
-      <c r="AH225" s="117"/>
-      <c r="AI225" s="117"/>
-      <c r="AJ225" s="121" t="s">
+      <c r="AE225" s="118"/>
+      <c r="AF225" s="118"/>
+      <c r="AG225" s="118"/>
+      <c r="AH225" s="118"/>
+      <c r="AI225" s="118"/>
+      <c r="AJ225" s="122" t="s">
         <v>312</v>
       </c>
-      <c r="AK225" s="121"/>
+      <c r="AK225" s="122"/>
       <c r="AL225" s="31" t="n">
         <v>224</v>
       </c>
-      <c r="AM225" s="117"/>
-      <c r="AN225" s="117"/>
-      <c r="AO225" s="117"/>
+      <c r="AM225" s="118"/>
+      <c r="AN225" s="118"/>
+      <c r="AO225" s="118"/>
     </row>
     <row r="226" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="15" t="n">
@@ -21770,60 +21777,60 @@
       <c r="C226" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D226" s="123" t="s">
-        <v>607</v>
+      <c r="D226" s="124" t="s">
+        <v>608</v>
       </c>
       <c r="E226" s="91" t="s">
+        <v>622</v>
+      </c>
+      <c r="F226" s="91" t="s">
+        <v>623</v>
+      </c>
+      <c r="G226" s="118"/>
+      <c r="H226" s="119" t="s">
+        <v>624</v>
+      </c>
+      <c r="I226" s="120" t="s">
         <v>621</v>
       </c>
-      <c r="F226" s="91" t="s">
-        <v>622</v>
-      </c>
-      <c r="G226" s="117"/>
-      <c r="H226" s="118" t="s">
-        <v>623</v>
-      </c>
-      <c r="I226" s="119" t="s">
-        <v>620</v>
-      </c>
-      <c r="J226" s="117"/>
-      <c r="K226" s="117"/>
-      <c r="L226" s="117"/>
-      <c r="M226" s="117"/>
-      <c r="N226" s="117"/>
-      <c r="O226" s="117"/>
-      <c r="P226" s="117"/>
-      <c r="Q226" s="117"/>
-      <c r="R226" s="117"/>
-      <c r="S226" s="117"/>
-      <c r="T226" s="117"/>
-      <c r="U226" s="117"/>
-      <c r="V226" s="117"/>
-      <c r="W226" s="117"/>
-      <c r="X226" s="117"/>
-      <c r="Y226" s="117"/>
-      <c r="Z226" s="117"/>
-      <c r="AA226" s="117"/>
-      <c r="AB226" s="117"/>
-      <c r="AC226" s="117"/>
-      <c r="AD226" s="117" t="n">
+      <c r="J226" s="118"/>
+      <c r="K226" s="118"/>
+      <c r="L226" s="118"/>
+      <c r="M226" s="118"/>
+      <c r="N226" s="118"/>
+      <c r="O226" s="118"/>
+      <c r="P226" s="118"/>
+      <c r="Q226" s="118"/>
+      <c r="R226" s="118"/>
+      <c r="S226" s="118"/>
+      <c r="T226" s="118"/>
+      <c r="U226" s="118"/>
+      <c r="V226" s="118"/>
+      <c r="W226" s="118"/>
+      <c r="X226" s="118"/>
+      <c r="Y226" s="118"/>
+      <c r="Z226" s="118"/>
+      <c r="AA226" s="118"/>
+      <c r="AB226" s="118"/>
+      <c r="AC226" s="118"/>
+      <c r="AD226" s="118" t="n">
         <v>0</v>
       </c>
-      <c r="AE226" s="117"/>
-      <c r="AF226" s="117"/>
-      <c r="AG226" s="117"/>
-      <c r="AH226" s="117"/>
-      <c r="AI226" s="117"/>
-      <c r="AJ226" s="121" t="s">
+      <c r="AE226" s="118"/>
+      <c r="AF226" s="118"/>
+      <c r="AG226" s="118"/>
+      <c r="AH226" s="118"/>
+      <c r="AI226" s="118"/>
+      <c r="AJ226" s="122" t="s">
         <v>312</v>
       </c>
-      <c r="AK226" s="121"/>
+      <c r="AK226" s="122"/>
       <c r="AL226" s="22" t="n">
         <v>225</v>
       </c>
-      <c r="AM226" s="117"/>
-      <c r="AN226" s="117"/>
-      <c r="AO226" s="117"/>
+      <c r="AM226" s="118"/>
+      <c r="AN226" s="118"/>
+      <c r="AO226" s="118"/>
     </row>
     <row r="227" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="25" t="n">
@@ -21835,60 +21842,60 @@
       <c r="C227" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D227" s="123" t="s">
-        <v>607</v>
+      <c r="D227" s="124" t="s">
+        <v>608</v>
       </c>
       <c r="E227" s="91" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F227" s="91" t="s">
-        <v>625</v>
-      </c>
-      <c r="G227" s="117"/>
-      <c r="H227" s="118" t="s">
         <v>626</v>
       </c>
-      <c r="I227" s="119" t="s">
-        <v>620</v>
-      </c>
-      <c r="J227" s="117"/>
-      <c r="K227" s="117"/>
-      <c r="L227" s="117"/>
-      <c r="M227" s="117"/>
-      <c r="N227" s="117"/>
-      <c r="O227" s="117"/>
-      <c r="P227" s="117"/>
-      <c r="Q227" s="117"/>
-      <c r="R227" s="117"/>
-      <c r="S227" s="117"/>
-      <c r="T227" s="117"/>
-      <c r="U227" s="117"/>
-      <c r="V227" s="117"/>
-      <c r="W227" s="117"/>
-      <c r="X227" s="117"/>
-      <c r="Y227" s="117"/>
-      <c r="Z227" s="117"/>
-      <c r="AA227" s="117"/>
-      <c r="AB227" s="117"/>
-      <c r="AC227" s="117"/>
-      <c r="AD227" s="117" t="n">
+      <c r="G227" s="118"/>
+      <c r="H227" s="119" t="s">
+        <v>627</v>
+      </c>
+      <c r="I227" s="120" t="s">
+        <v>621</v>
+      </c>
+      <c r="J227" s="118"/>
+      <c r="K227" s="118"/>
+      <c r="L227" s="118"/>
+      <c r="M227" s="118"/>
+      <c r="N227" s="118"/>
+      <c r="O227" s="118"/>
+      <c r="P227" s="118"/>
+      <c r="Q227" s="118"/>
+      <c r="R227" s="118"/>
+      <c r="S227" s="118"/>
+      <c r="T227" s="118"/>
+      <c r="U227" s="118"/>
+      <c r="V227" s="118"/>
+      <c r="W227" s="118"/>
+      <c r="X227" s="118"/>
+      <c r="Y227" s="118"/>
+      <c r="Z227" s="118"/>
+      <c r="AA227" s="118"/>
+      <c r="AB227" s="118"/>
+      <c r="AC227" s="118"/>
+      <c r="AD227" s="118" t="n">
         <v>0</v>
       </c>
-      <c r="AE227" s="117"/>
-      <c r="AF227" s="117"/>
-      <c r="AG227" s="117"/>
-      <c r="AH227" s="117"/>
-      <c r="AI227" s="117"/>
-      <c r="AJ227" s="121" t="s">
+      <c r="AE227" s="118"/>
+      <c r="AF227" s="118"/>
+      <c r="AG227" s="118"/>
+      <c r="AH227" s="118"/>
+      <c r="AI227" s="118"/>
+      <c r="AJ227" s="122" t="s">
         <v>312</v>
       </c>
-      <c r="AK227" s="121"/>
+      <c r="AK227" s="122"/>
       <c r="AL227" s="31" t="n">
         <v>226</v>
       </c>
-      <c r="AM227" s="117"/>
-      <c r="AN227" s="117"/>
-      <c r="AO227" s="117"/>
+      <c r="AM227" s="118"/>
+      <c r="AN227" s="118"/>
+      <c r="AO227" s="118"/>
     </row>
     <row r="228" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="15" t="n">
@@ -21900,60 +21907,60 @@
       <c r="C228" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D228" s="123" t="s">
-        <v>607</v>
+      <c r="D228" s="124" t="s">
+        <v>608</v>
       </c>
       <c r="E228" s="91" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F228" s="91" t="s">
-        <v>628</v>
-      </c>
-      <c r="G228" s="117"/>
-      <c r="H228" s="118" t="s">
         <v>629</v>
       </c>
-      <c r="I228" s="119" t="s">
-        <v>620</v>
-      </c>
-      <c r="J228" s="117"/>
-      <c r="K228" s="117"/>
-      <c r="L228" s="117"/>
-      <c r="M228" s="117"/>
-      <c r="N228" s="117"/>
-      <c r="O228" s="117"/>
-      <c r="P228" s="117"/>
-      <c r="Q228" s="117"/>
-      <c r="R228" s="117"/>
-      <c r="S228" s="117"/>
-      <c r="T228" s="117"/>
-      <c r="U228" s="117"/>
-      <c r="V228" s="117"/>
-      <c r="W228" s="117"/>
-      <c r="X228" s="117"/>
-      <c r="Y228" s="117"/>
-      <c r="Z228" s="117"/>
-      <c r="AA228" s="117"/>
-      <c r="AB228" s="117"/>
-      <c r="AC228" s="117"/>
-      <c r="AD228" s="117" t="n">
+      <c r="G228" s="118"/>
+      <c r="H228" s="119" t="s">
+        <v>630</v>
+      </c>
+      <c r="I228" s="120" t="s">
+        <v>621</v>
+      </c>
+      <c r="J228" s="118"/>
+      <c r="K228" s="118"/>
+      <c r="L228" s="118"/>
+      <c r="M228" s="118"/>
+      <c r="N228" s="118"/>
+      <c r="O228" s="118"/>
+      <c r="P228" s="118"/>
+      <c r="Q228" s="118"/>
+      <c r="R228" s="118"/>
+      <c r="S228" s="118"/>
+      <c r="T228" s="118"/>
+      <c r="U228" s="118"/>
+      <c r="V228" s="118"/>
+      <c r="W228" s="118"/>
+      <c r="X228" s="118"/>
+      <c r="Y228" s="118"/>
+      <c r="Z228" s="118"/>
+      <c r="AA228" s="118"/>
+      <c r="AB228" s="118"/>
+      <c r="AC228" s="118"/>
+      <c r="AD228" s="118" t="n">
         <v>0</v>
       </c>
-      <c r="AE228" s="117"/>
-      <c r="AF228" s="117"/>
-      <c r="AG228" s="117"/>
-      <c r="AH228" s="117"/>
-      <c r="AI228" s="117"/>
-      <c r="AJ228" s="121" t="s">
+      <c r="AE228" s="118"/>
+      <c r="AF228" s="118"/>
+      <c r="AG228" s="118"/>
+      <c r="AH228" s="118"/>
+      <c r="AI228" s="118"/>
+      <c r="AJ228" s="122" t="s">
         <v>312</v>
       </c>
-      <c r="AK228" s="121"/>
+      <c r="AK228" s="122"/>
       <c r="AL228" s="22" t="n">
         <v>227</v>
       </c>
-      <c r="AM228" s="117"/>
-      <c r="AN228" s="117"/>
-      <c r="AO228" s="117"/>
+      <c r="AM228" s="118"/>
+      <c r="AN228" s="118"/>
+      <c r="AO228" s="118"/>
     </row>
     <row r="229" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="25" t="n">
@@ -21965,58 +21972,58 @@
       <c r="C229" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D229" s="123" t="s">
-        <v>607</v>
+      <c r="D229" s="124" t="s">
+        <v>608</v>
       </c>
       <c r="E229" s="91" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F229" s="91" t="s">
-        <v>631</v>
-      </c>
-      <c r="G229" s="117" t="s">
+        <v>632</v>
+      </c>
+      <c r="G229" s="118" t="s">
         <v>380</v>
       </c>
-      <c r="H229" s="118" t="s">
-        <v>632</v>
-      </c>
-      <c r="I229" s="119" t="s">
-        <v>620</v>
-      </c>
-      <c r="J229" s="117"/>
-      <c r="K229" s="117"/>
-      <c r="L229" s="117"/>
-      <c r="M229" s="117"/>
-      <c r="N229" s="117"/>
-      <c r="O229" s="117"/>
-      <c r="P229" s="117"/>
-      <c r="Q229" s="117"/>
-      <c r="R229" s="117"/>
-      <c r="S229" s="117"/>
-      <c r="T229" s="117"/>
-      <c r="U229" s="117"/>
-      <c r="V229" s="117"/>
-      <c r="W229" s="117"/>
-      <c r="X229" s="117"/>
-      <c r="Y229" s="117"/>
-      <c r="Z229" s="117"/>
-      <c r="AA229" s="117"/>
-      <c r="AB229" s="117"/>
-      <c r="AC229" s="117"/>
-      <c r="AD229" s="117"/>
-      <c r="AE229" s="117"/>
-      <c r="AF229" s="117"/>
-      <c r="AG229" s="117"/>
-      <c r="AH229" s="117"/>
-      <c r="AI229" s="117"/>
-      <c r="AJ229" s="121"/>
-      <c r="AK229" s="121"/>
+      <c r="H229" s="119" t="s">
+        <v>633</v>
+      </c>
+      <c r="I229" s="120" t="s">
+        <v>621</v>
+      </c>
+      <c r="J229" s="118"/>
+      <c r="K229" s="118"/>
+      <c r="L229" s="118"/>
+      <c r="M229" s="118"/>
+      <c r="N229" s="118"/>
+      <c r="O229" s="118"/>
+      <c r="P229" s="118"/>
+      <c r="Q229" s="118"/>
+      <c r="R229" s="118"/>
+      <c r="S229" s="118"/>
+      <c r="T229" s="118"/>
+      <c r="U229" s="118"/>
+      <c r="V229" s="118"/>
+      <c r="W229" s="118"/>
+      <c r="X229" s="118"/>
+      <c r="Y229" s="118"/>
+      <c r="Z229" s="118"/>
+      <c r="AA229" s="118"/>
+      <c r="AB229" s="118"/>
+      <c r="AC229" s="118"/>
+      <c r="AD229" s="118"/>
+      <c r="AE229" s="118"/>
+      <c r="AF229" s="118"/>
+      <c r="AG229" s="118"/>
+      <c r="AH229" s="118"/>
+      <c r="AI229" s="118"/>
+      <c r="AJ229" s="122"/>
+      <c r="AK229" s="122"/>
       <c r="AL229" s="31" t="n">
         <v>228</v>
       </c>
-      <c r="AM229" s="117"/>
-      <c r="AN229" s="117"/>
-      <c r="AO229" s="117"/>
+      <c r="AM229" s="118"/>
+      <c r="AN229" s="118"/>
+      <c r="AO229" s="118"/>
     </row>
     <row r="230" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="15" t="n">
@@ -22028,58 +22035,58 @@
       <c r="C230" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D230" s="123" t="s">
-        <v>607</v>
+      <c r="D230" s="124" t="s">
+        <v>608</v>
       </c>
       <c r="E230" s="91" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F230" s="91" t="s">
-        <v>631</v>
-      </c>
-      <c r="G230" s="117" t="s">
+        <v>632</v>
+      </c>
+      <c r="G230" s="118" t="s">
         <v>407</v>
       </c>
-      <c r="H230" s="118" t="s">
-        <v>633</v>
-      </c>
-      <c r="I230" s="119" t="s">
-        <v>620</v>
-      </c>
-      <c r="J230" s="117"/>
-      <c r="K230" s="117"/>
-      <c r="L230" s="117"/>
-      <c r="M230" s="117"/>
-      <c r="N230" s="117"/>
-      <c r="O230" s="117"/>
-      <c r="P230" s="117"/>
-      <c r="Q230" s="117"/>
-      <c r="R230" s="117"/>
-      <c r="S230" s="117"/>
-      <c r="T230" s="117"/>
-      <c r="U230" s="117"/>
-      <c r="V230" s="117"/>
-      <c r="W230" s="117"/>
-      <c r="X230" s="117"/>
-      <c r="Y230" s="117"/>
-      <c r="Z230" s="117"/>
-      <c r="AA230" s="117"/>
-      <c r="AB230" s="117"/>
-      <c r="AC230" s="117"/>
-      <c r="AD230" s="117"/>
-      <c r="AE230" s="117"/>
-      <c r="AF230" s="117"/>
-      <c r="AG230" s="117"/>
-      <c r="AH230" s="117"/>
-      <c r="AI230" s="117"/>
-      <c r="AJ230" s="121"/>
-      <c r="AK230" s="121"/>
+      <c r="H230" s="119" t="s">
+        <v>634</v>
+      </c>
+      <c r="I230" s="120" t="s">
+        <v>621</v>
+      </c>
+      <c r="J230" s="118"/>
+      <c r="K230" s="118"/>
+      <c r="L230" s="118"/>
+      <c r="M230" s="118"/>
+      <c r="N230" s="118"/>
+      <c r="O230" s="118"/>
+      <c r="P230" s="118"/>
+      <c r="Q230" s="118"/>
+      <c r="R230" s="118"/>
+      <c r="S230" s="118"/>
+      <c r="T230" s="118"/>
+      <c r="U230" s="118"/>
+      <c r="V230" s="118"/>
+      <c r="W230" s="118"/>
+      <c r="X230" s="118"/>
+      <c r="Y230" s="118"/>
+      <c r="Z230" s="118"/>
+      <c r="AA230" s="118"/>
+      <c r="AB230" s="118"/>
+      <c r="AC230" s="118"/>
+      <c r="AD230" s="118"/>
+      <c r="AE230" s="118"/>
+      <c r="AF230" s="118"/>
+      <c r="AG230" s="118"/>
+      <c r="AH230" s="118"/>
+      <c r="AI230" s="118"/>
+      <c r="AJ230" s="122"/>
+      <c r="AK230" s="122"/>
       <c r="AL230" s="22" t="n">
         <v>229</v>
       </c>
-      <c r="AM230" s="117"/>
-      <c r="AN230" s="117"/>
-      <c r="AO230" s="117"/>
+      <c r="AM230" s="118"/>
+      <c r="AN230" s="118"/>
+      <c r="AO230" s="118"/>
     </row>
     <row r="231" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="25" t="n">
@@ -22091,58 +22098,58 @@
       <c r="C231" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D231" s="123" t="s">
-        <v>607</v>
+      <c r="D231" s="124" t="s">
+        <v>608</v>
       </c>
       <c r="E231" s="91" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F231" s="91" t="s">
-        <v>631</v>
-      </c>
-      <c r="G231" s="117" t="s">
+        <v>632</v>
+      </c>
+      <c r="G231" s="118" t="s">
         <v>438</v>
       </c>
-      <c r="H231" s="118" t="s">
-        <v>633</v>
-      </c>
-      <c r="I231" s="119" t="s">
-        <v>620</v>
-      </c>
-      <c r="J231" s="117"/>
-      <c r="K231" s="117"/>
-      <c r="L231" s="117"/>
-      <c r="M231" s="117"/>
-      <c r="N231" s="117"/>
-      <c r="O231" s="117"/>
-      <c r="P231" s="117"/>
-      <c r="Q231" s="117"/>
-      <c r="R231" s="117"/>
-      <c r="S231" s="117"/>
-      <c r="T231" s="117"/>
-      <c r="U231" s="117"/>
-      <c r="V231" s="117"/>
-      <c r="W231" s="117"/>
-      <c r="X231" s="117"/>
-      <c r="Y231" s="117"/>
-      <c r="Z231" s="117"/>
-      <c r="AA231" s="117"/>
-      <c r="AB231" s="117"/>
-      <c r="AC231" s="117"/>
-      <c r="AD231" s="117"/>
-      <c r="AE231" s="117"/>
-      <c r="AF231" s="117"/>
-      <c r="AG231" s="117"/>
-      <c r="AH231" s="117"/>
-      <c r="AI231" s="117"/>
-      <c r="AJ231" s="121"/>
-      <c r="AK231" s="121"/>
+      <c r="H231" s="119" t="s">
+        <v>634</v>
+      </c>
+      <c r="I231" s="120" t="s">
+        <v>621</v>
+      </c>
+      <c r="J231" s="118"/>
+      <c r="K231" s="118"/>
+      <c r="L231" s="118"/>
+      <c r="M231" s="118"/>
+      <c r="N231" s="118"/>
+      <c r="O231" s="118"/>
+      <c r="P231" s="118"/>
+      <c r="Q231" s="118"/>
+      <c r="R231" s="118"/>
+      <c r="S231" s="118"/>
+      <c r="T231" s="118"/>
+      <c r="U231" s="118"/>
+      <c r="V231" s="118"/>
+      <c r="W231" s="118"/>
+      <c r="X231" s="118"/>
+      <c r="Y231" s="118"/>
+      <c r="Z231" s="118"/>
+      <c r="AA231" s="118"/>
+      <c r="AB231" s="118"/>
+      <c r="AC231" s="118"/>
+      <c r="AD231" s="118"/>
+      <c r="AE231" s="118"/>
+      <c r="AF231" s="118"/>
+      <c r="AG231" s="118"/>
+      <c r="AH231" s="118"/>
+      <c r="AI231" s="118"/>
+      <c r="AJ231" s="122"/>
+      <c r="AK231" s="122"/>
       <c r="AL231" s="31" t="n">
         <v>230</v>
       </c>
-      <c r="AM231" s="117"/>
-      <c r="AN231" s="117"/>
-      <c r="AO231" s="117"/>
+      <c r="AM231" s="118"/>
+      <c r="AN231" s="118"/>
+      <c r="AO231" s="118"/>
     </row>
     <row r="232" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="15" t="n">
@@ -22154,58 +22161,58 @@
       <c r="C232" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D232" s="123" t="s">
-        <v>607</v>
+      <c r="D232" s="124" t="s">
+        <v>608</v>
       </c>
       <c r="E232" s="91" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F232" s="91" t="s">
-        <v>631</v>
-      </c>
-      <c r="G232" s="117" t="s">
+        <v>632</v>
+      </c>
+      <c r="G232" s="118" t="s">
         <v>456</v>
       </c>
-      <c r="H232" s="118" t="s">
-        <v>634</v>
-      </c>
-      <c r="I232" s="119" t="s">
-        <v>620</v>
-      </c>
-      <c r="J232" s="117"/>
-      <c r="K232" s="117"/>
-      <c r="L232" s="117"/>
-      <c r="M232" s="117"/>
-      <c r="N232" s="117"/>
-      <c r="O232" s="117"/>
-      <c r="P232" s="117"/>
-      <c r="Q232" s="117"/>
-      <c r="R232" s="117"/>
-      <c r="S232" s="117"/>
-      <c r="T232" s="117"/>
-      <c r="U232" s="117"/>
-      <c r="V232" s="117"/>
-      <c r="W232" s="117"/>
-      <c r="X232" s="117"/>
-      <c r="Y232" s="117"/>
-      <c r="Z232" s="117"/>
-      <c r="AA232" s="117"/>
-      <c r="AB232" s="117"/>
-      <c r="AC232" s="117"/>
-      <c r="AD232" s="117"/>
-      <c r="AE232" s="117"/>
-      <c r="AF232" s="117"/>
-      <c r="AG232" s="117"/>
-      <c r="AH232" s="117"/>
-      <c r="AI232" s="117"/>
-      <c r="AJ232" s="121"/>
-      <c r="AK232" s="121"/>
+      <c r="H232" s="119" t="s">
+        <v>635</v>
+      </c>
+      <c r="I232" s="120" t="s">
+        <v>621</v>
+      </c>
+      <c r="J232" s="118"/>
+      <c r="K232" s="118"/>
+      <c r="L232" s="118"/>
+      <c r="M232" s="118"/>
+      <c r="N232" s="118"/>
+      <c r="O232" s="118"/>
+      <c r="P232" s="118"/>
+      <c r="Q232" s="118"/>
+      <c r="R232" s="118"/>
+      <c r="S232" s="118"/>
+      <c r="T232" s="118"/>
+      <c r="U232" s="118"/>
+      <c r="V232" s="118"/>
+      <c r="W232" s="118"/>
+      <c r="X232" s="118"/>
+      <c r="Y232" s="118"/>
+      <c r="Z232" s="118"/>
+      <c r="AA232" s="118"/>
+      <c r="AB232" s="118"/>
+      <c r="AC232" s="118"/>
+      <c r="AD232" s="118"/>
+      <c r="AE232" s="118"/>
+      <c r="AF232" s="118"/>
+      <c r="AG232" s="118"/>
+      <c r="AH232" s="118"/>
+      <c r="AI232" s="118"/>
+      <c r="AJ232" s="122"/>
+      <c r="AK232" s="122"/>
       <c r="AL232" s="22" t="n">
         <v>231</v>
       </c>
-      <c r="AM232" s="117"/>
-      <c r="AN232" s="117"/>
-      <c r="AO232" s="117"/>
+      <c r="AM232" s="118"/>
+      <c r="AN232" s="118"/>
+      <c r="AO232" s="118"/>
     </row>
     <row r="233" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="25" t="n">
@@ -22217,58 +22224,58 @@
       <c r="C233" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D233" s="123" t="s">
-        <v>607</v>
+      <c r="D233" s="124" t="s">
+        <v>608</v>
       </c>
       <c r="E233" s="91" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F233" s="91" t="s">
-        <v>631</v>
-      </c>
-      <c r="G233" s="117" t="s">
+        <v>632</v>
+      </c>
+      <c r="G233" s="118" t="s">
         <v>474</v>
       </c>
-      <c r="H233" s="118" t="s">
-        <v>632</v>
-      </c>
-      <c r="I233" s="119" t="s">
-        <v>620</v>
-      </c>
-      <c r="J233" s="117"/>
-      <c r="K233" s="117"/>
-      <c r="L233" s="117"/>
-      <c r="M233" s="117"/>
-      <c r="N233" s="117"/>
-      <c r="O233" s="117"/>
-      <c r="P233" s="117"/>
-      <c r="Q233" s="117"/>
-      <c r="R233" s="117"/>
-      <c r="S233" s="117"/>
-      <c r="T233" s="117"/>
-      <c r="U233" s="117"/>
-      <c r="V233" s="117"/>
-      <c r="W233" s="117"/>
-      <c r="X233" s="117"/>
-      <c r="Y233" s="117"/>
-      <c r="Z233" s="117"/>
-      <c r="AA233" s="117"/>
-      <c r="AB233" s="117"/>
-      <c r="AC233" s="117"/>
-      <c r="AD233" s="117"/>
-      <c r="AE233" s="117"/>
-      <c r="AF233" s="117"/>
-      <c r="AG233" s="117"/>
-      <c r="AH233" s="117"/>
-      <c r="AI233" s="117"/>
-      <c r="AJ233" s="121"/>
-      <c r="AK233" s="121"/>
+      <c r="H233" s="119" t="s">
+        <v>633</v>
+      </c>
+      <c r="I233" s="120" t="s">
+        <v>621</v>
+      </c>
+      <c r="J233" s="118"/>
+      <c r="K233" s="118"/>
+      <c r="L233" s="118"/>
+      <c r="M233" s="118"/>
+      <c r="N233" s="118"/>
+      <c r="O233" s="118"/>
+      <c r="P233" s="118"/>
+      <c r="Q233" s="118"/>
+      <c r="R233" s="118"/>
+      <c r="S233" s="118"/>
+      <c r="T233" s="118"/>
+      <c r="U233" s="118"/>
+      <c r="V233" s="118"/>
+      <c r="W233" s="118"/>
+      <c r="X233" s="118"/>
+      <c r="Y233" s="118"/>
+      <c r="Z233" s="118"/>
+      <c r="AA233" s="118"/>
+      <c r="AB233" s="118"/>
+      <c r="AC233" s="118"/>
+      <c r="AD233" s="118"/>
+      <c r="AE233" s="118"/>
+      <c r="AF233" s="118"/>
+      <c r="AG233" s="118"/>
+      <c r="AH233" s="118"/>
+      <c r="AI233" s="118"/>
+      <c r="AJ233" s="122"/>
+      <c r="AK233" s="122"/>
       <c r="AL233" s="31" t="n">
         <v>232</v>
       </c>
-      <c r="AM233" s="117"/>
-      <c r="AN233" s="117"/>
-      <c r="AO233" s="117"/>
+      <c r="AM233" s="118"/>
+      <c r="AN233" s="118"/>
+      <c r="AO233" s="118"/>
     </row>
     <row r="234" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="15" t="n">
@@ -22280,58 +22287,58 @@
       <c r="C234" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D234" s="123" t="s">
-        <v>607</v>
+      <c r="D234" s="124" t="s">
+        <v>608</v>
       </c>
       <c r="E234" s="91" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F234" s="91" t="s">
-        <v>631</v>
-      </c>
-      <c r="G234" s="117" t="s">
+        <v>632</v>
+      </c>
+      <c r="G234" s="118" t="s">
         <v>486</v>
       </c>
-      <c r="H234" s="118" t="s">
-        <v>632</v>
-      </c>
-      <c r="I234" s="119" t="s">
-        <v>620</v>
-      </c>
-      <c r="J234" s="117"/>
-      <c r="K234" s="117"/>
-      <c r="L234" s="117"/>
-      <c r="M234" s="117"/>
-      <c r="N234" s="117"/>
-      <c r="O234" s="117"/>
-      <c r="P234" s="117"/>
-      <c r="Q234" s="117"/>
-      <c r="R234" s="117"/>
-      <c r="S234" s="117"/>
-      <c r="T234" s="117"/>
-      <c r="U234" s="117"/>
-      <c r="V234" s="117"/>
-      <c r="W234" s="117"/>
-      <c r="X234" s="117"/>
-      <c r="Y234" s="117"/>
-      <c r="Z234" s="117"/>
-      <c r="AA234" s="117"/>
-      <c r="AB234" s="117"/>
-      <c r="AC234" s="117"/>
-      <c r="AD234" s="117"/>
-      <c r="AE234" s="117"/>
-      <c r="AF234" s="117"/>
-      <c r="AG234" s="117"/>
-      <c r="AH234" s="117"/>
-      <c r="AI234" s="117"/>
-      <c r="AJ234" s="121"/>
-      <c r="AK234" s="121"/>
+      <c r="H234" s="119" t="s">
+        <v>633</v>
+      </c>
+      <c r="I234" s="120" t="s">
+        <v>621</v>
+      </c>
+      <c r="J234" s="118"/>
+      <c r="K234" s="118"/>
+      <c r="L234" s="118"/>
+      <c r="M234" s="118"/>
+      <c r="N234" s="118"/>
+      <c r="O234" s="118"/>
+      <c r="P234" s="118"/>
+      <c r="Q234" s="118"/>
+      <c r="R234" s="118"/>
+      <c r="S234" s="118"/>
+      <c r="T234" s="118"/>
+      <c r="U234" s="118"/>
+      <c r="V234" s="118"/>
+      <c r="W234" s="118"/>
+      <c r="X234" s="118"/>
+      <c r="Y234" s="118"/>
+      <c r="Z234" s="118"/>
+      <c r="AA234" s="118"/>
+      <c r="AB234" s="118"/>
+      <c r="AC234" s="118"/>
+      <c r="AD234" s="118"/>
+      <c r="AE234" s="118"/>
+      <c r="AF234" s="118"/>
+      <c r="AG234" s="118"/>
+      <c r="AH234" s="118"/>
+      <c r="AI234" s="118"/>
+      <c r="AJ234" s="122"/>
+      <c r="AK234" s="122"/>
       <c r="AL234" s="22" t="n">
         <v>233</v>
       </c>
-      <c r="AM234" s="117"/>
-      <c r="AN234" s="117"/>
-      <c r="AO234" s="117"/>
+      <c r="AM234" s="118"/>
+      <c r="AN234" s="118"/>
+      <c r="AO234" s="118"/>
     </row>
     <row r="235" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="25" t="n">
@@ -22343,58 +22350,58 @@
       <c r="C235" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D235" s="123" t="s">
-        <v>607</v>
+      <c r="D235" s="124" t="s">
+        <v>608</v>
       </c>
       <c r="E235" s="91" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F235" s="91" t="s">
-        <v>631</v>
-      </c>
-      <c r="G235" s="117" t="s">
+        <v>632</v>
+      </c>
+      <c r="G235" s="118" t="s">
         <v>497</v>
       </c>
-      <c r="H235" s="118" t="s">
-        <v>634</v>
-      </c>
-      <c r="I235" s="119" t="s">
-        <v>620</v>
-      </c>
-      <c r="J235" s="117"/>
-      <c r="K235" s="117"/>
-      <c r="L235" s="117"/>
-      <c r="M235" s="117"/>
-      <c r="N235" s="117"/>
-      <c r="O235" s="117"/>
-      <c r="P235" s="117"/>
-      <c r="Q235" s="117"/>
-      <c r="R235" s="117"/>
-      <c r="S235" s="117"/>
-      <c r="T235" s="117"/>
-      <c r="U235" s="117"/>
-      <c r="V235" s="117"/>
-      <c r="W235" s="117"/>
-      <c r="X235" s="117"/>
-      <c r="Y235" s="117"/>
-      <c r="Z235" s="117"/>
-      <c r="AA235" s="117"/>
-      <c r="AB235" s="117"/>
-      <c r="AC235" s="117"/>
-      <c r="AD235" s="117"/>
-      <c r="AE235" s="117"/>
-      <c r="AF235" s="117"/>
-      <c r="AG235" s="117"/>
-      <c r="AH235" s="117"/>
-      <c r="AI235" s="117"/>
-      <c r="AJ235" s="121"/>
-      <c r="AK235" s="121"/>
+      <c r="H235" s="119" t="s">
+        <v>635</v>
+      </c>
+      <c r="I235" s="120" t="s">
+        <v>621</v>
+      </c>
+      <c r="J235" s="118"/>
+      <c r="K235" s="118"/>
+      <c r="L235" s="118"/>
+      <c r="M235" s="118"/>
+      <c r="N235" s="118"/>
+      <c r="O235" s="118"/>
+      <c r="P235" s="118"/>
+      <c r="Q235" s="118"/>
+      <c r="R235" s="118"/>
+      <c r="S235" s="118"/>
+      <c r="T235" s="118"/>
+      <c r="U235" s="118"/>
+      <c r="V235" s="118"/>
+      <c r="W235" s="118"/>
+      <c r="X235" s="118"/>
+      <c r="Y235" s="118"/>
+      <c r="Z235" s="118"/>
+      <c r="AA235" s="118"/>
+      <c r="AB235" s="118"/>
+      <c r="AC235" s="118"/>
+      <c r="AD235" s="118"/>
+      <c r="AE235" s="118"/>
+      <c r="AF235" s="118"/>
+      <c r="AG235" s="118"/>
+      <c r="AH235" s="118"/>
+      <c r="AI235" s="118"/>
+      <c r="AJ235" s="122"/>
+      <c r="AK235" s="122"/>
       <c r="AL235" s="22" t="n">
         <v>234</v>
       </c>
-      <c r="AM235" s="117"/>
-      <c r="AN235" s="117"/>
-      <c r="AO235" s="117"/>
+      <c r="AM235" s="118"/>
+      <c r="AN235" s="118"/>
+      <c r="AO235" s="118"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AP235"/>
@@ -22421,13 +22428,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="125" t="s">
-        <v>589</v>
+      <c r="A1" s="126" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22458,54 +22462,51 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="127" t="s">
+      <c r="E1" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="127" t="s">
-        <v>635</v>
-      </c>
-      <c r="H1" s="127" t="s">
+      <c r="G1" s="128" t="s">
         <v>636</v>
       </c>
-      <c r="I1" s="127" t="s">
+      <c r="H1" s="128" t="s">
+        <v>637</v>
+      </c>
+      <c r="I1" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="127" t="s">
+      <c r="J1" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="127" t="s">
-        <v>637</v>
-      </c>
-      <c r="L1" s="127" t="s">
+      <c r="K1" s="128" t="s">
+        <v>638</v>
+      </c>
+      <c r="L1" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="127" t="s">
+      <c r="M1" s="128" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="128" t="s">
-        <v>638</v>
+      <c r="B4" s="129" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/Supermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Supermarket PoS 2018.xlsx
@@ -38,6 +38,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2030,7 +2031,7 @@
     <t xml:space="preserve">Промо дисплеи: Фейсинги</t>
   </si>
   <si>
-    <t xml:space="preserve">check_number_of_scenes_with_facings_target</t>
+    <t xml:space="preserve">number of scenes with have at least target amount of facings</t>
   </si>
   <si>
     <t xml:space="preserve">COUNT</t>
@@ -2811,7 +2812,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2962,19 +2963,24 @@
   </sheetPr>
   <dimension ref="A1:AO235"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M192" activeCellId="0" sqref="M192"/>
+      <selection pane="bottomLeft" activeCell="H219" activeCellId="0" sqref="H219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3238866396761"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.2591093117409"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.5101214574899"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.914979757085"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.2267206477733"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.6882591093117"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.6234817813765"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="32" min="14" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.4696356275304"/>
+    <col collapsed="false" hidden="false" max="1025" min="34" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="83.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21322,11 +21328,9 @@
         <v>606</v>
       </c>
       <c r="I219" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J219" s="53" t="n">
         <v>8</v>
       </c>
+      <c r="J219" s="53"/>
       <c r="K219" s="53"/>
       <c r="L219" s="53" t="s">
         <v>306</v>
@@ -22423,11 +22427,14 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="126" t="s">
@@ -22457,11 +22464,14 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="127" t="s">

--- a/Projects/CCRU/Data/Supermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Supermarket PoS 2018.xlsx
@@ -41,6 +41,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AR$234</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AR$234</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AR$234</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AR$234</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="668">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2039,10 +2040,13 @@
     <t xml:space="preserve">Промо дисплеи: Фейсинги</t>
   </si>
   <si>
+    <t xml:space="preserve">check_number_of_scenes_with_facings_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT</t>
+  </si>
+  <si>
     <t xml:space="preserve">number of scenes with have at least target amount of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUNT</t>
   </si>
   <si>
     <t xml:space="preserve">Hidden</t>
@@ -3208,21 +3212,21 @@
   <dimension ref="A1:AQ65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AO235" activeCellId="0" sqref="AO235"/>
+      <selection pane="bottomLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.2550607287449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="13" min="11" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="34" min="16" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.10526315789474"/>
@@ -22010,14 +22014,16 @@
       <c r="H219" s="113" t="s">
         <v>607</v>
       </c>
-      <c r="I219" s="118" t="s">
+      <c r="I219" s="81" t="s">
         <v>608</v>
       </c>
       <c r="J219" s="118"/>
       <c r="K219" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" s="58" t="n">
         <v>8</v>
       </c>
-      <c r="L219" s="58"/>
       <c r="M219" s="58"/>
       <c r="N219" s="58" t="s">
         <v>308</v>
@@ -22056,7 +22062,9 @@
       </c>
       <c r="AG219" s="58"/>
       <c r="AH219" s="58"/>
-      <c r="AI219" s="58"/>
+      <c r="AI219" s="57" t="s">
+        <v>610</v>
+      </c>
       <c r="AJ219" s="58"/>
       <c r="AK219" s="58"/>
       <c r="AL219" s="14" t="n">
@@ -22083,23 +22091,23 @@
         <v>44</v>
       </c>
       <c r="D220" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E220" s="121" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F220" s="121" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G220" s="121" t="s">
         <v>402</v>
       </c>
       <c r="H220" s="122"/>
       <c r="I220" s="36" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="J220" s="123" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K220" s="124"/>
       <c r="L220" s="124"/>
@@ -22110,7 +22118,7 @@
       <c r="Q220" s="124"/>
       <c r="R220" s="124"/>
       <c r="S220" s="124" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="T220" s="124"/>
       <c r="U220" s="124"/>
@@ -22138,7 +22146,7 @@
         <v>219</v>
       </c>
       <c r="AO220" s="123" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AP220" s="124"/>
       <c r="AQ220" s="124"/>
@@ -22154,23 +22162,23 @@
         <v>44</v>
       </c>
       <c r="D221" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E221" s="127" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F221" s="127" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G221" s="128" t="s">
         <v>321</v>
       </c>
       <c r="H221" s="128"/>
       <c r="I221" s="43" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="J221" s="124" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K221" s="124"/>
       <c r="L221" s="124"/>
@@ -22181,7 +22189,7 @@
       <c r="Q221" s="124"/>
       <c r="R221" s="124"/>
       <c r="S221" s="124" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="T221" s="124"/>
       <c r="U221" s="124"/>
@@ -22209,7 +22217,7 @@
         <v>220</v>
       </c>
       <c r="AO221" s="123" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AP221" s="124"/>
       <c r="AQ221" s="124"/>
@@ -22225,25 +22233,25 @@
         <v>44</v>
       </c>
       <c r="D222" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E222" s="121" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F222" s="121" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G222" s="129" t="s">
         <v>589</v>
       </c>
       <c r="H222" s="128" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I222" s="43" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="J222" s="124" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K222" s="124"/>
       <c r="L222" s="124"/>
@@ -22254,7 +22262,7 @@
       <c r="Q222" s="124"/>
       <c r="R222" s="124"/>
       <c r="S222" s="124" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="T222" s="124"/>
       <c r="U222" s="124"/>
@@ -22298,23 +22306,23 @@
         <v>44</v>
       </c>
       <c r="D223" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E223" s="121" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F223" s="121" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G223" s="121" t="s">
         <v>539</v>
       </c>
       <c r="H223" s="128"/>
       <c r="I223" s="43" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J223" s="124" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K223" s="124"/>
       <c r="L223" s="124"/>
@@ -22325,7 +22333,7 @@
       <c r="Q223" s="124"/>
       <c r="R223" s="124"/>
       <c r="S223" s="124" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="T223" s="124"/>
       <c r="U223" s="124"/>
@@ -22353,7 +22361,7 @@
         <v>222</v>
       </c>
       <c r="AO223" s="123" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AP223" s="124"/>
       <c r="AQ223" s="124"/>
@@ -22369,25 +22377,25 @@
         <v>44</v>
       </c>
       <c r="D224" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E224" s="121" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F224" s="121" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G224" s="121" t="s">
         <v>605</v>
       </c>
       <c r="H224" s="128" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I224" s="43" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="J224" s="124" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K224" s="124"/>
       <c r="L224" s="124"/>
@@ -22398,7 +22406,7 @@
       <c r="Q224" s="124"/>
       <c r="R224" s="124"/>
       <c r="S224" s="124" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="T224" s="124"/>
       <c r="U224" s="124"/>
@@ -22442,36 +22450,36 @@
         <v>44</v>
       </c>
       <c r="D225" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E225" s="121" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F225" s="121" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G225" s="121" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H225" s="122"/>
       <c r="I225" s="36" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J225" s="123" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K225" s="124"/>
       <c r="L225" s="124"/>
       <c r="M225" s="123"/>
       <c r="N225" s="123"/>
       <c r="O225" s="124" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="P225" s="124"/>
       <c r="Q225" s="124"/>
       <c r="R225" s="124"/>
       <c r="S225" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T225" s="124"/>
       <c r="U225" s="124"/>
@@ -22479,7 +22487,7 @@
       <c r="W225" s="124"/>
       <c r="X225" s="124"/>
       <c r="Y225" s="123" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="Z225" s="124"/>
       <c r="AA225" s="124"/>
@@ -22515,23 +22523,23 @@
         <v>44</v>
       </c>
       <c r="D226" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E226" s="121" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F226" s="121" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G226" s="121" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H226" s="122"/>
       <c r="I226" s="36" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J226" s="123" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K226" s="124"/>
       <c r="L226" s="124"/>
@@ -22544,7 +22552,7 @@
       <c r="Q226" s="124"/>
       <c r="R226" s="124"/>
       <c r="S226" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T226" s="124"/>
       <c r="U226" s="124"/>
@@ -22552,7 +22560,7 @@
       <c r="W226" s="124"/>
       <c r="X226" s="124"/>
       <c r="Y226" s="123" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z226" s="124"/>
       <c r="AA226" s="124"/>
@@ -22588,36 +22596,36 @@
         <v>44</v>
       </c>
       <c r="D227" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E227" s="121" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F227" s="121" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G227" s="121" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H227" s="122"/>
       <c r="I227" s="36" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J227" s="123" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K227" s="124"/>
       <c r="L227" s="124"/>
       <c r="M227" s="123"/>
       <c r="N227" s="123"/>
       <c r="O227" s="124" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="P227" s="124"/>
       <c r="Q227" s="124"/>
       <c r="R227" s="124"/>
       <c r="S227" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T227" s="124"/>
       <c r="U227" s="124"/>
@@ -22625,7 +22633,7 @@
       <c r="W227" s="124"/>
       <c r="X227" s="124"/>
       <c r="Y227" s="123" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z227" s="124"/>
       <c r="AA227" s="124"/>
@@ -22661,38 +22669,38 @@
         <v>44</v>
       </c>
       <c r="D228" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E228" s="121" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F228" s="121" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G228" s="121" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H228" s="122" t="s">
         <v>382</v>
       </c>
       <c r="I228" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J228" s="123" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K228" s="124"/>
       <c r="L228" s="124"/>
       <c r="M228" s="123"/>
       <c r="N228" s="123"/>
       <c r="O228" s="123" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="P228" s="124"/>
       <c r="Q228" s="124"/>
       <c r="R228" s="124"/>
       <c r="S228" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T228" s="124"/>
       <c r="U228" s="124"/>
@@ -22700,7 +22708,7 @@
       <c r="W228" s="124"/>
       <c r="X228" s="124"/>
       <c r="Y228" s="123" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="Z228" s="124"/>
       <c r="AA228" s="124"/>
@@ -22738,38 +22746,38 @@
         <v>44</v>
       </c>
       <c r="D229" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E229" s="121" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F229" s="121" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G229" s="121" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H229" s="122" t="s">
         <v>409</v>
       </c>
       <c r="I229" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J229" s="123" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K229" s="124"/>
       <c r="L229" s="124"/>
       <c r="M229" s="123"/>
       <c r="N229" s="123"/>
       <c r="O229" s="123" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P229" s="124"/>
       <c r="Q229" s="124"/>
       <c r="R229" s="124"/>
       <c r="S229" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T229" s="124"/>
       <c r="U229" s="124"/>
@@ -22777,7 +22785,7 @@
       <c r="W229" s="124"/>
       <c r="X229" s="124"/>
       <c r="Y229" s="123" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Z229" s="124"/>
       <c r="AA229" s="124"/>
@@ -22815,38 +22823,38 @@
         <v>44</v>
       </c>
       <c r="D230" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E230" s="121" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F230" s="121" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G230" s="121" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H230" s="122" t="s">
         <v>440</v>
       </c>
       <c r="I230" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J230" s="123" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K230" s="124"/>
       <c r="L230" s="124"/>
       <c r="M230" s="123"/>
       <c r="N230" s="123"/>
       <c r="O230" s="123" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P230" s="124"/>
       <c r="Q230" s="124"/>
       <c r="R230" s="124"/>
       <c r="S230" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T230" s="124"/>
       <c r="U230" s="124"/>
@@ -22854,7 +22862,7 @@
       <c r="W230" s="124"/>
       <c r="X230" s="124"/>
       <c r="Y230" s="123" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Z230" s="124"/>
       <c r="AA230" s="124"/>
@@ -22892,38 +22900,38 @@
         <v>44</v>
       </c>
       <c r="D231" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E231" s="121" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F231" s="121" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G231" s="121" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H231" s="122" t="s">
         <v>458</v>
       </c>
       <c r="I231" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J231" s="123" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K231" s="124"/>
       <c r="L231" s="124"/>
       <c r="M231" s="123"/>
       <c r="N231" s="123"/>
       <c r="O231" s="123" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="P231" s="124"/>
       <c r="Q231" s="124"/>
       <c r="R231" s="124"/>
       <c r="S231" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T231" s="124"/>
       <c r="U231" s="124"/>
@@ -22931,7 +22939,7 @@
       <c r="W231" s="124"/>
       <c r="X231" s="124"/>
       <c r="Y231" s="131" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Z231" s="124"/>
       <c r="AA231" s="124"/>
@@ -22969,38 +22977,38 @@
         <v>44</v>
       </c>
       <c r="D232" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E232" s="121" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F232" s="121" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G232" s="121" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H232" s="122" t="s">
         <v>476</v>
       </c>
       <c r="I232" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J232" s="123" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K232" s="124"/>
       <c r="L232" s="124"/>
       <c r="M232" s="123"/>
       <c r="N232" s="123"/>
       <c r="O232" s="123" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="P232" s="124"/>
       <c r="Q232" s="124"/>
       <c r="R232" s="124"/>
       <c r="S232" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T232" s="124"/>
       <c r="U232" s="124"/>
@@ -23008,7 +23016,7 @@
       <c r="W232" s="124"/>
       <c r="X232" s="124"/>
       <c r="Y232" s="123" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Z232" s="124"/>
       <c r="AA232" s="124"/>
@@ -23046,38 +23054,38 @@
         <v>44</v>
       </c>
       <c r="D233" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E233" s="121" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F233" s="121" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G233" s="121" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H233" s="122" t="s">
         <v>488</v>
       </c>
       <c r="I233" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J233" s="123" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K233" s="124"/>
       <c r="L233" s="124"/>
       <c r="M233" s="123"/>
       <c r="N233" s="123"/>
       <c r="O233" s="123" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="P233" s="124"/>
       <c r="Q233" s="124"/>
       <c r="R233" s="124"/>
       <c r="S233" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T233" s="124"/>
       <c r="U233" s="124"/>
@@ -23085,7 +23093,7 @@
       <c r="W233" s="124"/>
       <c r="X233" s="124"/>
       <c r="Y233" s="123" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="Z233" s="124"/>
       <c r="AA233" s="124"/>
@@ -23123,38 +23131,38 @@
         <v>44</v>
       </c>
       <c r="D234" s="120" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E234" s="121" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F234" s="121" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G234" s="121" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H234" s="122" t="s">
         <v>499</v>
       </c>
       <c r="I234" s="36" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J234" s="123" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K234" s="124"/>
       <c r="L234" s="124"/>
       <c r="M234" s="123"/>
       <c r="N234" s="123"/>
       <c r="O234" s="123" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="P234" s="124"/>
       <c r="Q234" s="124"/>
       <c r="R234" s="124"/>
       <c r="S234" s="124" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T234" s="124"/>
       <c r="U234" s="124"/>
@@ -23162,7 +23170,7 @@
       <c r="W234" s="124"/>
       <c r="X234" s="124"/>
       <c r="Y234" s="123" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Z234" s="124"/>
       <c r="AA234" s="124"/>
@@ -23276,10 +23284,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="134" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1" s="134" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="I1" s="134" t="s">
         <v>34</v>
@@ -23288,7 +23296,7 @@
         <v>31</v>
       </c>
       <c r="K1" s="134" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L1" s="134" t="s">
         <v>35</v>
@@ -23299,7 +23307,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="135" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/Supermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Supermarket PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Supermarket" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,6 +44,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AR$234</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AR$234</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AR$234</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Supermarket!$A$1:$AR$234</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3218,23 +3219,23 @@
   <dimension ref="A1:AQ65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N242" activeCellId="0" sqref="N242"/>
+      <selection pane="bottomLeft" activeCell="K177" activeCellId="0" sqref="K177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="5" min="1" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="13" min="11" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="34" min="16" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="14.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
@@ -18458,7 +18459,7 @@
       </c>
       <c r="J177" s="59"/>
       <c r="K177" s="59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L177" s="59"/>
       <c r="M177" s="59"/>
